--- a/SharePoint/Docs/MS-CPSWS/MS-CPSWS_RequirementSpecification.xlsx
+++ b/SharePoint/Docs/MS-CPSWS/MS-CPSWS_RequirementSpecification.xlsx
@@ -10,7 +10,7 @@
     <sheet name="Requirements" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Requirements!$A$19:$G$520</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Requirements!$A$19:$G$519</definedName>
     <definedName name="ExtensionList">Requirements!#REF!</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Requirements!$A:$A,Requirements!$19:$19</definedName>
     <definedName name="ScopeList">Requirements!#REF!</definedName>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3557" uniqueCount="1173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3550" uniqueCount="1171">
   <si>
     <t>Req ID</t>
   </si>
@@ -4197,12 +4197,6 @@
   </si>
   <si>
     <t>[In Search] If no provider names are specified, the protocol server MUST use all the available claims providers.&lt;5&gt;</t>
-  </si>
-  <si>
-    <t>MS-CPSWS_R381001</t>
-  </si>
-  <si>
-    <t>[In Search] For this operation[Search], the server will not use any available claims providers. [In Appendix B: Product Behavior](&lt;5&gt; Section 3.1.4.12: Windows SharePoint Services 3.0 and above follow this behavior)</t>
   </si>
   <si>
     <t>MS-CPSWS_R398001</t>
@@ -4486,6 +4480,21 @@
     <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -4510,100 +4519,11 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="33">
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -4942,6 +4862,80 @@
         <scheme val="none"/>
       </font>
     </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -5071,34 +5065,34 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Requirement" displayName="Requirement" ref="A19:I520" tableType="xml" totalsRowShown="0" headerRowDxfId="32" dataDxfId="31" connectionId="1">
-  <autoFilter ref="A19:I520"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Requirement" displayName="Requirement" ref="A19:I519" tableType="xml" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17" connectionId="1">
+  <autoFilter ref="A19:I519"/>
   <tableColumns count="9">
-    <tableColumn id="1" uniqueName="ns1:REQ_ID" name="Req ID" dataDxfId="30">
+    <tableColumn id="1" uniqueName="ns1:REQ_ID" name="Req ID" dataDxfId="16">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:REQ_ID" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="2" uniqueName="ns1:Doc_Sect" name="Doc Sect" dataDxfId="29">
+    <tableColumn id="2" uniqueName="ns1:Doc_Sect" name="Doc Sect" dataDxfId="15">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Doc_Sect" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="3" uniqueName="ns1:Description" name="Description" dataDxfId="28">
+    <tableColumn id="3" uniqueName="ns1:Description" name="Description" dataDxfId="14">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Description" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="18" uniqueName="ns1:Derived" name="Derived" dataDxfId="27">
+    <tableColumn id="18" uniqueName="ns1:Derived" name="Derived" dataDxfId="13">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Derived" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="6" uniqueName="ns1:Behavior" name="Behavior" dataDxfId="26">
+    <tableColumn id="6" uniqueName="ns1:Behavior" name="Behavior" dataDxfId="12">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Behavior" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="7" uniqueName="ns1:Scope" name="Scope" dataDxfId="25">
+    <tableColumn id="7" uniqueName="ns1:Scope" name="Scope" dataDxfId="11">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Scope" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="9" uniqueName="ns1:IsNormative" name="Informative_x000a_/Normative" dataDxfId="24">
+    <tableColumn id="9" uniqueName="ns1:IsNormative" name="Informative_x000a_/Normative" dataDxfId="10">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:IsNormative" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="10" uniqueName="ns1:Verification" name="Verification" dataDxfId="23">
+    <tableColumn id="10" uniqueName="ns1:Verification" name="Verification" dataDxfId="9">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Verification" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="8" uniqueName="ns1:VerificationComment" name="Verification Comment" dataDxfId="22">
+    <tableColumn id="8" uniqueName="ns1:VerificationComment" name="Verification Comment" dataDxfId="8">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:VerificationComment" xmlDataType="string"/>
     </tableColumn>
   </tableColumns>
@@ -5107,12 +5101,12 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Scope" displayName="Scope" ref="A12:C15" totalsRowShown="0" headerRowDxfId="21" dataDxfId="19" headerRowBorderDxfId="20" tableBorderDxfId="18" totalsRowBorderDxfId="17">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Scope" displayName="Scope" ref="A12:C15" totalsRowShown="0" headerRowDxfId="7" dataDxfId="5" headerRowBorderDxfId="6" tableBorderDxfId="4" totalsRowBorderDxfId="3">
   <autoFilter ref="A12:C15"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="Scope" dataDxfId="16"/>
-    <tableColumn id="2" name="Test" dataDxfId="15"/>
-    <tableColumn id="3" name="Description" dataDxfId="14"/>
+    <tableColumn id="1" name="Scope" dataDxfId="2"/>
+    <tableColumn id="2" name="Test" dataDxfId="1"/>
+    <tableColumn id="3" name="Description" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -5440,11 +5434,9 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:L522"/>
+  <dimension ref="A1:L521"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8:I8"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
@@ -5498,127 +5490,127 @@
       <c r="J3" s="5"/>
     </row>
     <row r="4" spans="1:10" ht="21">
-      <c r="A4" s="41" t="s">
+      <c r="A4" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="41"/>
-      <c r="C4" s="41"/>
-      <c r="D4" s="41"/>
-      <c r="E4" s="41"/>
-      <c r="F4" s="41"/>
-      <c r="G4" s="41"/>
+      <c r="B4" s="33"/>
+      <c r="C4" s="33"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="33"/>
+      <c r="F4" s="33"/>
+      <c r="G4" s="33"/>
       <c r="J4" s="5"/>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="44" t="s">
+      <c r="B5" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="45"/>
-      <c r="D5" s="45"/>
-      <c r="E5" s="45"/>
-      <c r="F5" s="45"/>
-      <c r="G5" s="45"/>
-      <c r="H5" s="45"/>
-      <c r="I5" s="45"/>
+      <c r="C5" s="37"/>
+      <c r="D5" s="37"/>
+      <c r="E5" s="37"/>
+      <c r="F5" s="37"/>
+      <c r="G5" s="37"/>
+      <c r="H5" s="37"/>
+      <c r="I5" s="37"/>
       <c r="J5" s="5"/>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="43" t="s">
+      <c r="B6" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="C6" s="43"/>
-      <c r="D6" s="43"/>
-      <c r="E6" s="43"/>
-      <c r="F6" s="43"/>
-      <c r="G6" s="43"/>
-      <c r="H6" s="43"/>
-      <c r="I6" s="43"/>
+      <c r="C6" s="35"/>
+      <c r="D6" s="35"/>
+      <c r="E6" s="35"/>
+      <c r="F6" s="35"/>
+      <c r="G6" s="35"/>
+      <c r="H6" s="35"/>
+      <c r="I6" s="35"/>
       <c r="J6" s="5"/>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="B7" s="42" t="s">
+      <c r="B7" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="42"/>
-      <c r="D7" s="42"/>
-      <c r="E7" s="42"/>
-      <c r="F7" s="42"/>
-      <c r="G7" s="42"/>
-      <c r="H7" s="42"/>
-      <c r="I7" s="42"/>
+      <c r="C7" s="34"/>
+      <c r="D7" s="34"/>
+      <c r="E7" s="34"/>
+      <c r="F7" s="34"/>
+      <c r="G7" s="34"/>
+      <c r="H7" s="34"/>
+      <c r="I7" s="34"/>
       <c r="J7" s="5"/>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="42" t="s">
+      <c r="B8" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="42"/>
-      <c r="D8" s="42"/>
-      <c r="E8" s="42"/>
-      <c r="F8" s="42"/>
-      <c r="G8" s="42"/>
-      <c r="H8" s="42"/>
-      <c r="I8" s="42"/>
+      <c r="C8" s="34"/>
+      <c r="D8" s="34"/>
+      <c r="E8" s="34"/>
+      <c r="F8" s="34"/>
+      <c r="G8" s="34"/>
+      <c r="H8" s="34"/>
+      <c r="I8" s="34"/>
       <c r="J8" s="5"/>
     </row>
     <row r="9" spans="1:10" ht="78.75" customHeight="1">
       <c r="A9" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="37" t="s">
+      <c r="B9" s="42" t="s">
         <v>37</v>
       </c>
-      <c r="C9" s="38"/>
-      <c r="D9" s="38"/>
-      <c r="E9" s="38"/>
-      <c r="F9" s="38"/>
-      <c r="G9" s="38"/>
-      <c r="H9" s="38"/>
-      <c r="I9" s="38"/>
+      <c r="C9" s="43"/>
+      <c r="D9" s="43"/>
+      <c r="E9" s="43"/>
+      <c r="F9" s="43"/>
+      <c r="G9" s="43"/>
+      <c r="H9" s="43"/>
+      <c r="I9" s="43"/>
       <c r="J9" s="5"/>
     </row>
     <row r="10" spans="1:10" ht="33.75" customHeight="1">
       <c r="A10" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="37" t="s">
+      <c r="B10" s="42" t="s">
         <v>29</v>
       </c>
-      <c r="C10" s="38"/>
-      <c r="D10" s="38"/>
-      <c r="E10" s="38"/>
-      <c r="F10" s="38"/>
-      <c r="G10" s="38"/>
-      <c r="H10" s="38"/>
-      <c r="I10" s="38"/>
+      <c r="C10" s="43"/>
+      <c r="D10" s="43"/>
+      <c r="E10" s="43"/>
+      <c r="F10" s="43"/>
+      <c r="G10" s="43"/>
+      <c r="H10" s="43"/>
+      <c r="I10" s="43"/>
       <c r="J10" s="5"/>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="33" t="s">
+      <c r="B11" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="C11" s="33"/>
-      <c r="D11" s="33"/>
-      <c r="E11" s="33"/>
-      <c r="F11" s="33"/>
-      <c r="G11" s="33"/>
-      <c r="H11" s="33"/>
-      <c r="I11" s="33"/>
+      <c r="C11" s="38"/>
+      <c r="D11" s="38"/>
+      <c r="E11" s="38"/>
+      <c r="F11" s="38"/>
+      <c r="G11" s="38"/>
+      <c r="H11" s="38"/>
+      <c r="I11" s="38"/>
       <c r="J11" s="5"/>
     </row>
     <row r="12" spans="1:10">
@@ -5631,12 +5623,12 @@
       <c r="C12" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="D12" s="34"/>
-      <c r="E12" s="34"/>
-      <c r="F12" s="34"/>
-      <c r="G12" s="34"/>
-      <c r="H12" s="34"/>
-      <c r="I12" s="34"/>
+      <c r="D12" s="39"/>
+      <c r="E12" s="39"/>
+      <c r="F12" s="39"/>
+      <c r="G12" s="39"/>
+      <c r="H12" s="39"/>
+      <c r="I12" s="39"/>
       <c r="J12" s="5"/>
     </row>
     <row r="13" spans="1:10" ht="15" customHeight="1">
@@ -5649,12 +5641,12 @@
       <c r="C13" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="35"/>
-      <c r="E13" s="35"/>
-      <c r="F13" s="35"/>
-      <c r="G13" s="35"/>
-      <c r="H13" s="35"/>
-      <c r="I13" s="35"/>
+      <c r="D13" s="40"/>
+      <c r="E13" s="40"/>
+      <c r="F13" s="40"/>
+      <c r="G13" s="40"/>
+      <c r="H13" s="40"/>
+      <c r="I13" s="40"/>
       <c r="J13" s="5"/>
     </row>
     <row r="14" spans="1:10">
@@ -5667,12 +5659,12 @@
       <c r="C14" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="D14" s="35"/>
-      <c r="E14" s="35"/>
-      <c r="F14" s="35"/>
-      <c r="G14" s="35"/>
-      <c r="H14" s="35"/>
-      <c r="I14" s="35"/>
+      <c r="D14" s="40"/>
+      <c r="E14" s="40"/>
+      <c r="F14" s="40"/>
+      <c r="G14" s="40"/>
+      <c r="H14" s="40"/>
+      <c r="I14" s="40"/>
       <c r="J14" s="5"/>
     </row>
     <row r="15" spans="1:10">
@@ -5685,60 +5677,60 @@
       <c r="C15" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="D15" s="36"/>
-      <c r="E15" s="36"/>
-      <c r="F15" s="36"/>
-      <c r="G15" s="36"/>
-      <c r="H15" s="36"/>
-      <c r="I15" s="36"/>
+      <c r="D15" s="41"/>
+      <c r="E15" s="41"/>
+      <c r="F15" s="41"/>
+      <c r="G15" s="41"/>
+      <c r="H15" s="41"/>
+      <c r="I15" s="41"/>
       <c r="J15" s="5"/>
     </row>
     <row r="16" spans="1:10" ht="30" customHeight="1">
       <c r="A16" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="33" t="s">
+      <c r="B16" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="C16" s="33"/>
-      <c r="D16" s="33"/>
-      <c r="E16" s="33"/>
-      <c r="F16" s="33"/>
-      <c r="G16" s="33"/>
-      <c r="H16" s="33"/>
-      <c r="I16" s="33"/>
+      <c r="C16" s="38"/>
+      <c r="D16" s="38"/>
+      <c r="E16" s="38"/>
+      <c r="F16" s="38"/>
+      <c r="G16" s="38"/>
+      <c r="H16" s="38"/>
+      <c r="I16" s="38"/>
       <c r="J16" s="5"/>
     </row>
     <row r="17" spans="1:12" ht="64.5" customHeight="1">
       <c r="A17" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="B17" s="39" t="s">
+      <c r="B17" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="C17" s="40"/>
-      <c r="D17" s="40"/>
-      <c r="E17" s="40"/>
-      <c r="F17" s="40"/>
-      <c r="G17" s="40"/>
-      <c r="H17" s="40"/>
-      <c r="I17" s="40"/>
+      <c r="C17" s="45"/>
+      <c r="D17" s="45"/>
+      <c r="E17" s="45"/>
+      <c r="F17" s="45"/>
+      <c r="G17" s="45"/>
+      <c r="H17" s="45"/>
+      <c r="I17" s="45"/>
       <c r="J17" s="5"/>
     </row>
     <row r="18" spans="1:12" ht="30" customHeight="1">
       <c r="A18" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B18" s="33" t="s">
+      <c r="B18" s="38" t="s">
         <v>36</v>
       </c>
-      <c r="C18" s="33"/>
-      <c r="D18" s="33"/>
-      <c r="E18" s="33"/>
-      <c r="F18" s="33"/>
-      <c r="G18" s="33"/>
-      <c r="H18" s="33"/>
-      <c r="I18" s="33"/>
+      <c r="C18" s="38"/>
+      <c r="D18" s="38"/>
+      <c r="E18" s="38"/>
+      <c r="F18" s="38"/>
+      <c r="G18" s="38"/>
+      <c r="H18" s="38"/>
+      <c r="I18" s="38"/>
       <c r="J18" s="5"/>
       <c r="L18" s="4"/>
     </row>
@@ -12220,7 +12212,7 @@
         <v>15</v>
       </c>
       <c r="H277" s="30" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I277" s="32"/>
     </row>
@@ -12245,7 +12237,7 @@
         <v>15</v>
       </c>
       <c r="H278" s="30" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I278" s="32"/>
     </row>
@@ -12895,7 +12887,7 @@
         <v>15</v>
       </c>
       <c r="H304" s="30" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I304" s="32"/>
     </row>
@@ -12920,7 +12912,7 @@
         <v>15</v>
       </c>
       <c r="H305" s="30" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I305" s="32"/>
     </row>
@@ -13495,7 +13487,7 @@
         <v>15</v>
       </c>
       <c r="H328" s="30" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I328" s="32"/>
     </row>
@@ -17026,13 +17018,13 @@
     </row>
     <row r="470" spans="1:9">
       <c r="A470" s="22" t="s">
-        <v>1169</v>
+        <v>1167</v>
       </c>
       <c r="B470" s="24" t="s">
         <v>643</v>
       </c>
       <c r="C470" s="20" t="s">
-        <v>1170</v>
+        <v>1168</v>
       </c>
       <c r="D470" s="30"/>
       <c r="E470" s="30" t="s">
@@ -18001,13 +17993,13 @@
     </row>
     <row r="509" spans="1:9">
       <c r="A509" s="22" t="s">
-        <v>1171</v>
+        <v>1169</v>
       </c>
       <c r="B509" s="24" t="s">
         <v>653</v>
       </c>
       <c r="C509" s="20" t="s">
-        <v>1172</v>
+        <v>1170</v>
       </c>
       <c r="D509" s="22"/>
       <c r="E509" s="22" t="s">
@@ -18278,46 +18270,16 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="520" spans="1:9" ht="30">
-      <c r="A520" s="22" t="s">
-        <v>1167</v>
-      </c>
-      <c r="B520" s="24" t="s">
-        <v>655</v>
-      </c>
-      <c r="C520" s="20" t="s">
-        <v>1168</v>
-      </c>
-      <c r="D520" s="30"/>
-      <c r="E520" s="30" t="s">
-        <v>22</v>
-      </c>
-      <c r="F520" s="30" t="s">
-        <v>6</v>
-      </c>
-      <c r="G520" s="30" t="s">
-        <v>15</v>
-      </c>
-      <c r="H520" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="I520" s="32"/>
+    <row r="520" spans="1:9">
+      <c r="A520" s="3"/>
+      <c r="B520" s="10"/>
     </row>
     <row r="521" spans="1:9">
       <c r="A521" s="3"/>
       <c r="B521" s="10"/>
     </row>
-    <row r="522" spans="1:9">
-      <c r="A522" s="3"/>
-      <c r="B522" s="10"/>
-    </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A4:G4"/>
-    <mergeCell ref="B8:I8"/>
-    <mergeCell ref="B7:I7"/>
-    <mergeCell ref="B6:I6"/>
-    <mergeCell ref="B5:I5"/>
     <mergeCell ref="B11:I11"/>
     <mergeCell ref="D12:I15"/>
     <mergeCell ref="B16:I16"/>
@@ -18325,75 +18287,80 @@
     <mergeCell ref="B9:I9"/>
     <mergeCell ref="B10:I10"/>
     <mergeCell ref="B17:I17"/>
+    <mergeCell ref="A4:G4"/>
+    <mergeCell ref="B8:I8"/>
+    <mergeCell ref="B7:I7"/>
+    <mergeCell ref="B6:I6"/>
+    <mergeCell ref="B5:I5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A20:H275 I20:I453 A34:I469 A470:B470 D470:I470 A471:I520">
-    <cfRule type="expression" dxfId="13" priority="91">
+  <conditionalFormatting sqref="A20:H275 I20:I453 A34:I469 A470:B470 D470:I470 A471:I519">
+    <cfRule type="expression" dxfId="32" priority="91">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="92">
+    <cfRule type="expression" dxfId="31" priority="92">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="11" priority="99">
+    <cfRule type="expression" dxfId="30" priority="99">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A20:H275 I20:I453 A34:I469 A470:B470 D470:I470 A471:I520">
-    <cfRule type="expression" dxfId="10" priority="45">
+  <conditionalFormatting sqref="A20:H275 I20:I453 A34:I469 A470:B470 D470:I470 A471:I519">
+    <cfRule type="expression" dxfId="29" priority="45">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="9" priority="46">
+    <cfRule type="expression" dxfId="28" priority="46">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="47">
+    <cfRule type="expression" dxfId="27" priority="47">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F20:F520">
-    <cfRule type="expression" dxfId="7" priority="51">
+  <conditionalFormatting sqref="F20:F519">
+    <cfRule type="expression" dxfId="26" priority="51">
       <formula>NOT(VLOOKUP(F20,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="52">
+    <cfRule type="expression" dxfId="25" priority="52">
       <formula>(VLOOKUP(F20,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C470">
-    <cfRule type="expression" dxfId="5" priority="4">
+    <cfRule type="expression" dxfId="24" priority="4">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="5">
+    <cfRule type="expression" dxfId="23" priority="5">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="6">
+    <cfRule type="expression" dxfId="22" priority="6">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C470">
-    <cfRule type="expression" dxfId="2" priority="1">
+    <cfRule type="expression" dxfId="21" priority="1">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="2">
+    <cfRule type="expression" dxfId="20" priority="2">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="3">
+    <cfRule type="expression" dxfId="19" priority="3">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="6">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4 F20:F520">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4 F20:F519">
       <formula1>$A$13:$A$15</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E4 E20:E520">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E4 E20:E519">
       <formula1>"Protocol,Product"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G4 G20:G520">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G4 G20:G519">
       <formula1>"Informative,Normative"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B13:B15">
       <formula1>"In, Out"</formula1>
     </dataValidation>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H20:H520">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H20:H519">
       <formula1>"Non-testable, Unverified, Adapter, Test Case"</formula1>
     </dataValidation>
   </dataValidations>
@@ -18403,7 +18370,7 @@
     <oddFooter>&amp;F&amp;RPage &amp;P</oddFooter>
   </headerFooter>
   <ignoredErrors>
-    <ignoredError sqref="B521:B522 B19:B114 B116:B200 B202:B214 B216:B219 B221:B234 B236:B258 B260:B274 B276:B286 B510:B518 B288:B469 B471:B508" numberStoredAsText="1"/>
+    <ignoredError sqref="B519:B521 B19:B287 B509:B518 B288:B470 B471:B508 C3" numberStoredAsText="1"/>
   </ignoredErrors>
   <tableParts count="2">
     <tablePart r:id="rId2"/>
@@ -18422,12 +18389,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F2EA47BB262D974097182E2CA8AB13E1" ma:contentTypeVersion="2" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="74597e8d9e42e7e4fc8eda6d37675aa2">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4aeb20c0e3442673af7ee10786458764">
     <xsd:element name="properties">
@@ -18476,6 +18437,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B6D33261-F3C6-4621-88F1-D76E5ABE1865}">
   <ds:schemaRefs>
@@ -18485,20 +18452,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{923F65C5-DEAB-400B-AA1F-124F40EE10AC}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EDB2DE12-5EF6-4CF2-820D-5F9FE329E08E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -18511,4 +18464,18 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/internal/2005/internalDocumentation"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{923F65C5-DEAB-400B-AA1F-124F40EE10AC}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/SharePoint/Docs/MS-CPSWS/MS-CPSWS_RequirementSpecification.xlsx
+++ b/SharePoint/Docs/MS-CPSWS/MS-CPSWS_RequirementSpecification.xlsx
@@ -4480,21 +4480,6 @@
     <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -4518,6 +4503,21 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5436,7 +5436,9 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:L521"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="D257" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H259" sqref="H259"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
@@ -5490,127 +5492,127 @@
       <c r="J3" s="5"/>
     </row>
     <row r="4" spans="1:10" ht="21">
-      <c r="A4" s="33" t="s">
+      <c r="A4" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="33"/>
-      <c r="C4" s="33"/>
-      <c r="D4" s="33"/>
-      <c r="E4" s="33"/>
-      <c r="F4" s="33"/>
-      <c r="G4" s="33"/>
+      <c r="B4" s="41"/>
+      <c r="C4" s="41"/>
+      <c r="D4" s="41"/>
+      <c r="E4" s="41"/>
+      <c r="F4" s="41"/>
+      <c r="G4" s="41"/>
       <c r="J4" s="5"/>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="36" t="s">
+      <c r="B5" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="37"/>
-      <c r="D5" s="37"/>
-      <c r="E5" s="37"/>
-      <c r="F5" s="37"/>
-      <c r="G5" s="37"/>
-      <c r="H5" s="37"/>
-      <c r="I5" s="37"/>
+      <c r="C5" s="45"/>
+      <c r="D5" s="45"/>
+      <c r="E5" s="45"/>
+      <c r="F5" s="45"/>
+      <c r="G5" s="45"/>
+      <c r="H5" s="45"/>
+      <c r="I5" s="45"/>
       <c r="J5" s="5"/>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="35" t="s">
+      <c r="B6" s="43" t="s">
         <v>34</v>
       </c>
-      <c r="C6" s="35"/>
-      <c r="D6" s="35"/>
-      <c r="E6" s="35"/>
-      <c r="F6" s="35"/>
-      <c r="G6" s="35"/>
-      <c r="H6" s="35"/>
-      <c r="I6" s="35"/>
+      <c r="C6" s="43"/>
+      <c r="D6" s="43"/>
+      <c r="E6" s="43"/>
+      <c r="F6" s="43"/>
+      <c r="G6" s="43"/>
+      <c r="H6" s="43"/>
+      <c r="I6" s="43"/>
       <c r="J6" s="5"/>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="B7" s="34" t="s">
+      <c r="B7" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="34"/>
-      <c r="D7" s="34"/>
-      <c r="E7" s="34"/>
-      <c r="F7" s="34"/>
-      <c r="G7" s="34"/>
-      <c r="H7" s="34"/>
-      <c r="I7" s="34"/>
+      <c r="C7" s="42"/>
+      <c r="D7" s="42"/>
+      <c r="E7" s="42"/>
+      <c r="F7" s="42"/>
+      <c r="G7" s="42"/>
+      <c r="H7" s="42"/>
+      <c r="I7" s="42"/>
       <c r="J7" s="5"/>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="34" t="s">
+      <c r="B8" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="34"/>
-      <c r="D8" s="34"/>
-      <c r="E8" s="34"/>
-      <c r="F8" s="34"/>
-      <c r="G8" s="34"/>
-      <c r="H8" s="34"/>
-      <c r="I8" s="34"/>
+      <c r="C8" s="42"/>
+      <c r="D8" s="42"/>
+      <c r="E8" s="42"/>
+      <c r="F8" s="42"/>
+      <c r="G8" s="42"/>
+      <c r="H8" s="42"/>
+      <c r="I8" s="42"/>
       <c r="J8" s="5"/>
     </row>
     <row r="9" spans="1:10" ht="78.75" customHeight="1">
       <c r="A9" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="42" t="s">
+      <c r="B9" s="37" t="s">
         <v>37</v>
       </c>
-      <c r="C9" s="43"/>
-      <c r="D9" s="43"/>
-      <c r="E9" s="43"/>
-      <c r="F9" s="43"/>
-      <c r="G9" s="43"/>
-      <c r="H9" s="43"/>
-      <c r="I9" s="43"/>
+      <c r="C9" s="38"/>
+      <c r="D9" s="38"/>
+      <c r="E9" s="38"/>
+      <c r="F9" s="38"/>
+      <c r="G9" s="38"/>
+      <c r="H9" s="38"/>
+      <c r="I9" s="38"/>
       <c r="J9" s="5"/>
     </row>
     <row r="10" spans="1:10" ht="33.75" customHeight="1">
       <c r="A10" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="42" t="s">
+      <c r="B10" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="C10" s="43"/>
-      <c r="D10" s="43"/>
-      <c r="E10" s="43"/>
-      <c r="F10" s="43"/>
-      <c r="G10" s="43"/>
-      <c r="H10" s="43"/>
-      <c r="I10" s="43"/>
+      <c r="C10" s="38"/>
+      <c r="D10" s="38"/>
+      <c r="E10" s="38"/>
+      <c r="F10" s="38"/>
+      <c r="G10" s="38"/>
+      <c r="H10" s="38"/>
+      <c r="I10" s="38"/>
       <c r="J10" s="5"/>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="38" t="s">
+      <c r="B11" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="C11" s="38"/>
-      <c r="D11" s="38"/>
-      <c r="E11" s="38"/>
-      <c r="F11" s="38"/>
-      <c r="G11" s="38"/>
-      <c r="H11" s="38"/>
-      <c r="I11" s="38"/>
+      <c r="C11" s="33"/>
+      <c r="D11" s="33"/>
+      <c r="E11" s="33"/>
+      <c r="F11" s="33"/>
+      <c r="G11" s="33"/>
+      <c r="H11" s="33"/>
+      <c r="I11" s="33"/>
       <c r="J11" s="5"/>
     </row>
     <row r="12" spans="1:10">
@@ -5623,12 +5625,12 @@
       <c r="C12" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="D12" s="39"/>
-      <c r="E12" s="39"/>
-      <c r="F12" s="39"/>
-      <c r="G12" s="39"/>
-      <c r="H12" s="39"/>
-      <c r="I12" s="39"/>
+      <c r="D12" s="34"/>
+      <c r="E12" s="34"/>
+      <c r="F12" s="34"/>
+      <c r="G12" s="34"/>
+      <c r="H12" s="34"/>
+      <c r="I12" s="34"/>
       <c r="J12" s="5"/>
     </row>
     <row r="13" spans="1:10" ht="15" customHeight="1">
@@ -5641,12 +5643,12 @@
       <c r="C13" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="40"/>
-      <c r="E13" s="40"/>
-      <c r="F13" s="40"/>
-      <c r="G13" s="40"/>
-      <c r="H13" s="40"/>
-      <c r="I13" s="40"/>
+      <c r="D13" s="35"/>
+      <c r="E13" s="35"/>
+      <c r="F13" s="35"/>
+      <c r="G13" s="35"/>
+      <c r="H13" s="35"/>
+      <c r="I13" s="35"/>
       <c r="J13" s="5"/>
     </row>
     <row r="14" spans="1:10">
@@ -5659,12 +5661,12 @@
       <c r="C14" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="D14" s="40"/>
-      <c r="E14" s="40"/>
-      <c r="F14" s="40"/>
-      <c r="G14" s="40"/>
-      <c r="H14" s="40"/>
-      <c r="I14" s="40"/>
+      <c r="D14" s="35"/>
+      <c r="E14" s="35"/>
+      <c r="F14" s="35"/>
+      <c r="G14" s="35"/>
+      <c r="H14" s="35"/>
+      <c r="I14" s="35"/>
       <c r="J14" s="5"/>
     </row>
     <row r="15" spans="1:10">
@@ -5677,60 +5679,60 @@
       <c r="C15" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="D15" s="41"/>
-      <c r="E15" s="41"/>
-      <c r="F15" s="41"/>
-      <c r="G15" s="41"/>
-      <c r="H15" s="41"/>
-      <c r="I15" s="41"/>
+      <c r="D15" s="36"/>
+      <c r="E15" s="36"/>
+      <c r="F15" s="36"/>
+      <c r="G15" s="36"/>
+      <c r="H15" s="36"/>
+      <c r="I15" s="36"/>
       <c r="J15" s="5"/>
     </row>
     <row r="16" spans="1:10" ht="30" customHeight="1">
       <c r="A16" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="38" t="s">
+      <c r="B16" s="33" t="s">
         <v>41</v>
       </c>
-      <c r="C16" s="38"/>
-      <c r="D16" s="38"/>
-      <c r="E16" s="38"/>
-      <c r="F16" s="38"/>
-      <c r="G16" s="38"/>
-      <c r="H16" s="38"/>
-      <c r="I16" s="38"/>
+      <c r="C16" s="33"/>
+      <c r="D16" s="33"/>
+      <c r="E16" s="33"/>
+      <c r="F16" s="33"/>
+      <c r="G16" s="33"/>
+      <c r="H16" s="33"/>
+      <c r="I16" s="33"/>
       <c r="J16" s="5"/>
     </row>
     <row r="17" spans="1:12" ht="64.5" customHeight="1">
       <c r="A17" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="B17" s="44" t="s">
+      <c r="B17" s="39" t="s">
         <v>42</v>
       </c>
-      <c r="C17" s="45"/>
-      <c r="D17" s="45"/>
-      <c r="E17" s="45"/>
-      <c r="F17" s="45"/>
-      <c r="G17" s="45"/>
-      <c r="H17" s="45"/>
-      <c r="I17" s="45"/>
+      <c r="C17" s="40"/>
+      <c r="D17" s="40"/>
+      <c r="E17" s="40"/>
+      <c r="F17" s="40"/>
+      <c r="G17" s="40"/>
+      <c r="H17" s="40"/>
+      <c r="I17" s="40"/>
       <c r="J17" s="5"/>
     </row>
     <row r="18" spans="1:12" ht="30" customHeight="1">
       <c r="A18" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B18" s="38" t="s">
+      <c r="B18" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="C18" s="38"/>
-      <c r="D18" s="38"/>
-      <c r="E18" s="38"/>
-      <c r="F18" s="38"/>
-      <c r="G18" s="38"/>
-      <c r="H18" s="38"/>
-      <c r="I18" s="38"/>
+      <c r="C18" s="33"/>
+      <c r="D18" s="33"/>
+      <c r="E18" s="33"/>
+      <c r="F18" s="33"/>
+      <c r="G18" s="33"/>
+      <c r="H18" s="33"/>
+      <c r="I18" s="33"/>
       <c r="J18" s="5"/>
       <c r="L18" s="4"/>
     </row>
@@ -11762,7 +11764,7 @@
         <v>15</v>
       </c>
       <c r="H259" s="30" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I259" s="32"/>
     </row>
@@ -18280,6 +18282,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A4:G4"/>
+    <mergeCell ref="B8:I8"/>
+    <mergeCell ref="B7:I7"/>
+    <mergeCell ref="B6:I6"/>
+    <mergeCell ref="B5:I5"/>
     <mergeCell ref="B11:I11"/>
     <mergeCell ref="D12:I15"/>
     <mergeCell ref="B16:I16"/>
@@ -18287,11 +18294,6 @@
     <mergeCell ref="B9:I9"/>
     <mergeCell ref="B10:I10"/>
     <mergeCell ref="B17:I17"/>
-    <mergeCell ref="A4:G4"/>
-    <mergeCell ref="B8:I8"/>
-    <mergeCell ref="B7:I7"/>
-    <mergeCell ref="B6:I6"/>
-    <mergeCell ref="B5:I5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A20:H275 I20:I453 A34:I469 A470:B470 D470:I470 A471:I519">
@@ -18380,15 +18382,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F2EA47BB262D974097182E2CA8AB13E1" ma:contentTypeVersion="2" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="74597e8d9e42e7e4fc8eda6d37675aa2">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4aeb20c0e3442673af7ee10786458764">
     <xsd:element name="properties">
@@ -18437,6 +18430,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
   <documentManagement/>
@@ -18444,14 +18446,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B6D33261-F3C6-4621-88F1-D76E5ABE1865}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EDB2DE12-5EF6-4CF2-820D-5F9FE329E08E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -18462,6 +18456,14 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/internal/2005/internalDocumentation"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B6D33261-F3C6-4621-88F1-D76E5ABE1865}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/SharePoint/Docs/MS-CPSWS/MS-CPSWS_RequirementSpecification.xlsx
+++ b/SharePoint/Docs/MS-CPSWS/MS-CPSWS_RequirementSpecification.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24430"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{904CD72D-5F52-4AF4-9E45-763E46A68212}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1233059F-194A-4389-9FDF-B89B07EEB983}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7200" yWindow="1575" windowWidth="21600" windowHeight="11385" tabRatio="570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Requirements" sheetId="2" r:id="rId1"/>
@@ -4185,10 +4185,6 @@
     <t>[In SearchAll The way in which the protocol server performs the search is implementation-specific.</t>
   </si>
   <si>
-    <t>10.0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>[In Namespaces] The prefix "tns2" is used for namespace URI "http://schemas.microsoft.com/sharepoint/claims/Imports".</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -4235,6 +4231,9 @@
   <si>
     <t xml:space="preserve">[In ClaimValueTypesResponse] The claim value type SHOULD format as a URI. </t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12.0</t>
   </si>
 </sst>
 </file>
@@ -4242,14 +4241,14 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd"/>
-    <numFmt numFmtId="177" formatCode="0.0.0"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
+    <numFmt numFmtId="165" formatCode="0.0.0"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -4446,13 +4445,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="176" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -4485,7 +4484,7 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4548,83 +4547,9 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="33">
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -4963,6 +4888,80 @@
         <scheme val="none"/>
       </font>
     </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -5092,34 +5091,34 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Requirement" displayName="Requirement" ref="A19:I520" tableType="xml" totalsRowShown="0" headerRowDxfId="32" dataDxfId="31" connectionId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Requirement" displayName="Requirement" ref="A19:I520" tableType="xml" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17" connectionId="1">
   <autoFilter ref="A19:I520" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" uniqueName="ns1:REQ_ID" name="Req ID" dataDxfId="30">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" uniqueName="ns1:REQ_ID" name="Req ID" dataDxfId="16">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:REQ_ID" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" uniqueName="ns1:Doc_Sect" name="Doc Sect" dataDxfId="29">
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" uniqueName="ns1:Doc_Sect" name="Doc Sect" dataDxfId="15">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Doc_Sect" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" uniqueName="ns1:Description" name="Description" dataDxfId="28">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" uniqueName="ns1:Description" name="Description" dataDxfId="14">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Description" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" uniqueName="ns1:Derived" name="Derived" dataDxfId="27">
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" uniqueName="ns1:Derived" name="Derived" dataDxfId="13">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Derived" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" uniqueName="ns1:Behavior" name="Behavior" dataDxfId="26">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" uniqueName="ns1:Behavior" name="Behavior" dataDxfId="12">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Behavior" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" uniqueName="ns1:Scope" name="Scope" dataDxfId="25">
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" uniqueName="ns1:Scope" name="Scope" dataDxfId="11">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Scope" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" uniqueName="ns1:IsNormative" name="Informative_x000a_/Normative" dataDxfId="24">
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" uniqueName="ns1:IsNormative" name="Informative_x000a_/Normative" dataDxfId="10">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:IsNormative" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" uniqueName="ns1:Verification" name="Verification" dataDxfId="23">
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" uniqueName="ns1:Verification" name="Verification" dataDxfId="9">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Verification" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" uniqueName="ns1:VerificationComment" name="Verification Comment" dataDxfId="22">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" uniqueName="ns1:VerificationComment" name="Verification Comment" dataDxfId="8">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:VerificationComment" xmlDataType="string"/>
     </tableColumn>
   </tableColumns>
@@ -5128,19 +5127,19 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Scope" displayName="Scope" ref="A12:C15" totalsRowShown="0" headerRowDxfId="21" dataDxfId="19" headerRowBorderDxfId="20" tableBorderDxfId="18" totalsRowBorderDxfId="17">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Scope" displayName="Scope" ref="A12:C15" totalsRowShown="0" headerRowDxfId="7" dataDxfId="5" headerRowBorderDxfId="6" tableBorderDxfId="4" totalsRowBorderDxfId="3">
   <autoFilter ref="A12:C15" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Scope" dataDxfId="16"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Test" dataDxfId="15"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Description" dataDxfId="14"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Scope" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Test" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Description" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -5463,24 +5462,26 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:L522"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5:I5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12.36328125" style="11" customWidth="1"/>
+    <col min="1" max="1" width="12.42578125" style="11" customWidth="1"/>
     <col min="2" max="2" width="13" style="3" customWidth="1"/>
     <col min="3" max="3" width="85" style="3" customWidth="1"/>
-    <col min="4" max="4" width="28.6328125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="12.36328125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="12.08984375" style="3" customWidth="1"/>
-    <col min="7" max="7" width="13.36328125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="28.5703125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="12.140625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" style="3" customWidth="1"/>
     <col min="8" max="8" width="23" style="3" customWidth="1"/>
-    <col min="9" max="9" width="28.7265625" style="3" customWidth="1"/>
+    <col min="9" max="9" width="28.7109375" style="3" customWidth="1"/>
     <col min="10" max="11" width="9" style="3" customWidth="1"/>
     <col min="12" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
         <v>1119</v>
       </c>
@@ -5490,7 +5491,7 @@
       <c r="F1" s="4"/>
       <c r="J1" s="5"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10">
       <c r="A2" s="6" t="s">
         <v>1122</v>
       </c>
@@ -5501,22 +5502,22 @@
       <c r="F2" s="25"/>
       <c r="J2" s="5"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10">
       <c r="B3" s="9" t="s">
         <v>25</v>
       </c>
       <c r="C3" s="32" t="s">
-        <v>1162</v>
+        <v>1174</v>
       </c>
       <c r="E3" s="9" t="s">
         <v>1125</v>
       </c>
       <c r="F3" s="12">
-        <v>43445</v>
+        <v>44397</v>
       </c>
       <c r="J3" s="5"/>
     </row>
-    <row r="4" spans="1:10" ht="21" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" ht="21">
       <c r="A4" s="41" t="s">
         <v>24</v>
       </c>
@@ -5528,7 +5529,7 @@
       <c r="G4" s="41"/>
       <c r="J4" s="5"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10">
       <c r="A5" s="13" t="s">
         <v>13</v>
       </c>
@@ -5544,7 +5545,7 @@
       <c r="I5" s="45"/>
       <c r="J5" s="5"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10">
       <c r="A6" s="14" t="s">
         <v>0</v>
       </c>
@@ -5560,7 +5561,7 @@
       <c r="I6" s="43"/>
       <c r="J6" s="5"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10">
       <c r="A7" s="14" t="s">
         <v>38</v>
       </c>
@@ -5576,7 +5577,7 @@
       <c r="I7" s="42"/>
       <c r="J7" s="5"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10">
       <c r="A8" s="14" t="s">
         <v>1</v>
       </c>
@@ -5592,7 +5593,7 @@
       <c r="I8" s="42"/>
       <c r="J8" s="5"/>
     </row>
-    <row r="9" spans="1:10" ht="78.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" ht="78.75" customHeight="1">
       <c r="A9" s="14" t="s">
         <v>12</v>
       </c>
@@ -5608,7 +5609,7 @@
       <c r="I9" s="38"/>
       <c r="J9" s="5"/>
     </row>
-    <row r="10" spans="1:10" ht="33.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" ht="33.75" customHeight="1">
       <c r="A10" s="14" t="s">
         <v>2</v>
       </c>
@@ -5624,7 +5625,7 @@
       <c r="I10" s="38"/>
       <c r="J10" s="5"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10">
       <c r="A11" s="14" t="s">
         <v>8</v>
       </c>
@@ -5640,7 +5641,7 @@
       <c r="I11" s="33"/>
       <c r="J11" s="5"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10">
       <c r="A12" s="26" t="s">
         <v>8</v>
       </c>
@@ -5658,7 +5659,7 @@
       <c r="I12" s="34"/>
       <c r="J12" s="5"/>
     </row>
-    <row r="13" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:10" ht="15" customHeight="1">
       <c r="A13" s="27" t="s">
         <v>6</v>
       </c>
@@ -5676,7 +5677,7 @@
       <c r="I13" s="35"/>
       <c r="J13" s="5"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:10">
       <c r="A14" s="27" t="s">
         <v>7</v>
       </c>
@@ -5694,7 +5695,7 @@
       <c r="I14" s="35"/>
       <c r="J14" s="5"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10">
       <c r="A15" s="28" t="s">
         <v>3</v>
       </c>
@@ -5712,7 +5713,7 @@
       <c r="I15" s="36"/>
       <c r="J15" s="5"/>
     </row>
-    <row r="16" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:10" ht="30" customHeight="1">
       <c r="A16" s="14" t="s">
         <v>23</v>
       </c>
@@ -5728,7 +5729,7 @@
       <c r="I16" s="33"/>
       <c r="J16" s="5"/>
     </row>
-    <row r="17" spans="1:12" ht="64.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:12" ht="64.5" customHeight="1">
       <c r="A17" s="14" t="s">
         <v>4</v>
       </c>
@@ -5744,7 +5745,7 @@
       <c r="I17" s="40"/>
       <c r="J17" s="5"/>
     </row>
-    <row r="18" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:12" ht="30" customHeight="1">
       <c r="A18" s="14" t="s">
         <v>5</v>
       </c>
@@ -5761,7 +5762,7 @@
       <c r="J18" s="5"/>
       <c r="L18" s="4"/>
     </row>
-    <row r="19" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:12" ht="30">
       <c r="A19" s="3" t="s">
         <v>0</v>
       </c>
@@ -5791,7 +5792,7 @@
       </c>
       <c r="J19" s="4"/>
     </row>
-    <row r="20" spans="1:12" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" s="23" customFormat="1">
       <c r="A20" s="22" t="s">
         <v>43</v>
       </c>
@@ -5816,7 +5817,7 @@
       </c>
       <c r="I20" s="24"/>
     </row>
-    <row r="21" spans="1:12" s="23" customFormat="1" ht="29" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" s="23" customFormat="1" ht="45">
       <c r="A21" s="22" t="s">
         <v>44</v>
       </c>
@@ -5843,7 +5844,7 @@
         <v>1121</v>
       </c>
     </row>
-    <row r="22" spans="1:12" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" s="23" customFormat="1">
       <c r="A22" s="22" t="s">
         <v>45</v>
       </c>
@@ -5868,7 +5869,7 @@
       </c>
       <c r="I22" s="24"/>
     </row>
-    <row r="23" spans="1:12" s="23" customFormat="1" ht="43.5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" s="23" customFormat="1" ht="45">
       <c r="A23" s="22" t="s">
         <v>46</v>
       </c>
@@ -5893,7 +5894,7 @@
       </c>
       <c r="I23" s="24"/>
     </row>
-    <row r="24" spans="1:12" s="23" customFormat="1" ht="29" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" s="23" customFormat="1" ht="30">
       <c r="A24" s="22" t="s">
         <v>47</v>
       </c>
@@ -5918,7 +5919,7 @@
       </c>
       <c r="I24" s="24"/>
     </row>
-    <row r="25" spans="1:12" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" s="23" customFormat="1" ht="30">
       <c r="A25" s="22" t="s">
         <v>48</v>
       </c>
@@ -5943,7 +5944,7 @@
       </c>
       <c r="I25" s="24"/>
     </row>
-    <row r="26" spans="1:12" s="23" customFormat="1" ht="43.5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" s="23" customFormat="1" ht="45">
       <c r="A26" s="22" t="s">
         <v>49</v>
       </c>
@@ -5968,7 +5969,7 @@
       </c>
       <c r="I26" s="24"/>
     </row>
-    <row r="27" spans="1:12" s="23" customFormat="1" ht="43.5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" s="23" customFormat="1" ht="45">
       <c r="A27" s="22" t="s">
         <v>50</v>
       </c>
@@ -5993,7 +5994,7 @@
       </c>
       <c r="I27" s="24"/>
     </row>
-    <row r="28" spans="1:12" s="23" customFormat="1" ht="29" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" s="23" customFormat="1" ht="30">
       <c r="A28" s="22" t="s">
         <v>51</v>
       </c>
@@ -6018,7 +6019,7 @@
       </c>
       <c r="I28" s="24"/>
     </row>
-    <row r="29" spans="1:12" s="23" customFormat="1" ht="43.5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" s="23" customFormat="1" ht="45">
       <c r="A29" s="22" t="s">
         <v>52</v>
       </c>
@@ -6043,7 +6044,7 @@
       </c>
       <c r="I29" s="24"/>
     </row>
-    <row r="30" spans="1:12" s="23" customFormat="1" ht="29" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" s="23" customFormat="1" ht="30">
       <c r="A30" s="22" t="s">
         <v>53</v>
       </c>
@@ -6068,7 +6069,7 @@
       </c>
       <c r="I30" s="24"/>
     </row>
-    <row r="31" spans="1:12" s="23" customFormat="1" ht="29" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" s="23" customFormat="1" ht="30">
       <c r="A31" s="22" t="s">
         <v>54</v>
       </c>
@@ -6093,7 +6094,7 @@
       </c>
       <c r="I31" s="24"/>
     </row>
-    <row r="32" spans="1:12" s="23" customFormat="1" ht="29" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" s="23" customFormat="1" ht="30">
       <c r="A32" s="22" t="s">
         <v>55</v>
       </c>
@@ -6118,15 +6119,15 @@
       </c>
       <c r="I32" s="24"/>
     </row>
-    <row r="33" spans="1:9" s="23" customFormat="1" ht="29" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" s="23" customFormat="1" ht="30">
       <c r="A33" s="22" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="B33" s="24" t="s">
         <v>534</v>
       </c>
       <c r="C33" s="20" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="D33" s="22"/>
       <c r="E33" s="22" t="s">
@@ -6143,15 +6144,15 @@
       </c>
       <c r="I33" s="24"/>
     </row>
-    <row r="34" spans="1:9" s="23" customFormat="1" ht="29" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" s="23" customFormat="1" ht="30">
       <c r="A34" s="22" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="B34" s="24" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="C34" s="20" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
       <c r="D34" s="22"/>
       <c r="E34" s="22" t="s">
@@ -6168,9 +6169,9 @@
       </c>
       <c r="I34" s="20"/>
     </row>
-    <row r="35" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:9" ht="30">
       <c r="A35" s="22" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="B35" s="30" t="s">
         <v>534</v>
@@ -6193,7 +6194,7 @@
       </c>
       <c r="I35" s="31"/>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:9" ht="30">
       <c r="A36" s="29" t="s">
         <v>56</v>
       </c>
@@ -6218,7 +6219,7 @@
       </c>
       <c r="I36" s="31"/>
     </row>
-    <row r="37" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:9" ht="30">
       <c r="A37" s="29" t="s">
         <v>57</v>
       </c>
@@ -6243,7 +6244,7 @@
       </c>
       <c r="I37" s="31"/>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:9" ht="30">
       <c r="A38" s="29" t="s">
         <v>58</v>
       </c>
@@ -6268,7 +6269,7 @@
       </c>
       <c r="I38" s="31"/>
     </row>
-    <row r="39" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:9" ht="45">
       <c r="A39" s="29" t="s">
         <v>59</v>
       </c>
@@ -6276,7 +6277,7 @@
         <v>534</v>
       </c>
       <c r="C39" s="20" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="D39" s="29"/>
       <c r="E39" s="29" t="s">
@@ -6293,7 +6294,7 @@
       </c>
       <c r="I39" s="31"/>
     </row>
-    <row r="40" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:9" ht="30">
       <c r="A40" s="29" t="s">
         <v>60</v>
       </c>
@@ -6318,7 +6319,7 @@
       </c>
       <c r="I40" s="31"/>
     </row>
-    <row r="41" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:9" ht="30">
       <c r="A41" s="29" t="s">
         <v>61</v>
       </c>
@@ -6343,7 +6344,7 @@
       </c>
       <c r="I41" s="31"/>
     </row>
-    <row r="42" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:9" ht="30">
       <c r="A42" s="29" t="s">
         <v>62</v>
       </c>
@@ -6368,7 +6369,7 @@
       </c>
       <c r="I42" s="31"/>
     </row>
-    <row r="43" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:9" ht="30">
       <c r="A43" s="29" t="s">
         <v>63</v>
       </c>
@@ -6393,7 +6394,7 @@
       </c>
       <c r="I43" s="31"/>
     </row>
-    <row r="44" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:9" ht="30">
       <c r="A44" s="29" t="s">
         <v>64</v>
       </c>
@@ -6418,7 +6419,7 @@
       </c>
       <c r="I44" s="31"/>
     </row>
-    <row r="45" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:9" ht="30">
       <c r="A45" s="29" t="s">
         <v>65</v>
       </c>
@@ -6443,7 +6444,7 @@
       </c>
       <c r="I45" s="31"/>
     </row>
-    <row r="46" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:9" ht="30">
       <c r="A46" s="29" t="s">
         <v>66</v>
       </c>
@@ -6468,7 +6469,7 @@
       </c>
       <c r="I46" s="31"/>
     </row>
-    <row r="47" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:9" ht="30">
       <c r="A47" s="29" t="s">
         <v>67</v>
       </c>
@@ -6493,7 +6494,7 @@
       </c>
       <c r="I47" s="31"/>
     </row>
-    <row r="48" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:9" ht="30">
       <c r="A48" s="29" t="s">
         <v>68</v>
       </c>
@@ -6518,7 +6519,7 @@
       </c>
       <c r="I48" s="31"/>
     </row>
-    <row r="49" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:9" ht="30">
       <c r="A49" s="29" t="s">
         <v>69</v>
       </c>
@@ -6543,7 +6544,7 @@
       </c>
       <c r="I49" s="31"/>
     </row>
-    <row r="50" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:9" ht="30">
       <c r="A50" s="29" t="s">
         <v>70</v>
       </c>
@@ -6568,7 +6569,7 @@
       </c>
       <c r="I50" s="31"/>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:9" ht="30">
       <c r="A51" s="29" t="s">
         <v>71</v>
       </c>
@@ -6593,7 +6594,7 @@
       </c>
       <c r="I51" s="31"/>
     </row>
-    <row r="52" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:9" ht="30">
       <c r="A52" s="29" t="s">
         <v>72</v>
       </c>
@@ -6618,7 +6619,7 @@
       </c>
       <c r="I52" s="31"/>
     </row>
-    <row r="53" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:9" ht="30">
       <c r="A53" s="29" t="s">
         <v>73</v>
       </c>
@@ -6643,7 +6644,7 @@
       </c>
       <c r="I53" s="31"/>
     </row>
-    <row r="54" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:9" ht="30">
       <c r="A54" s="29" t="s">
         <v>74</v>
       </c>
@@ -6668,7 +6669,7 @@
       </c>
       <c r="I54" s="31"/>
     </row>
-    <row r="55" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:9" ht="30">
       <c r="A55" s="29" t="s">
         <v>75</v>
       </c>
@@ -6693,7 +6694,7 @@
       </c>
       <c r="I55" s="31"/>
     </row>
-    <row r="56" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:9" ht="30">
       <c r="A56" s="29" t="s">
         <v>76</v>
       </c>
@@ -6718,7 +6719,7 @@
       </c>
       <c r="I56" s="31"/>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:9">
       <c r="A57" s="29" t="s">
         <v>77</v>
       </c>
@@ -6743,7 +6744,7 @@
       </c>
       <c r="I57" s="31"/>
     </row>
-    <row r="58" spans="1:9" ht="87" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:9" ht="105">
       <c r="A58" s="29" t="s">
         <v>78</v>
       </c>
@@ -6768,7 +6769,7 @@
       </c>
       <c r="I58" s="31"/>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:9">
       <c r="A59" s="29" t="s">
         <v>79</v>
       </c>
@@ -6793,7 +6794,7 @@
       </c>
       <c r="I59" s="31"/>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:9">
       <c r="A60" s="29" t="s">
         <v>80</v>
       </c>
@@ -6818,7 +6819,7 @@
       </c>
       <c r="I60" s="31"/>
     </row>
-    <row r="61" spans="1:9" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:9" ht="105">
       <c r="A61" s="29" t="s">
         <v>81</v>
       </c>
@@ -6843,7 +6844,7 @@
       </c>
       <c r="I61" s="31"/>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:9">
       <c r="A62" s="29" t="s">
         <v>82</v>
       </c>
@@ -6868,7 +6869,7 @@
       </c>
       <c r="I62" s="31"/>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:9">
       <c r="A63" s="29" t="s">
         <v>83</v>
       </c>
@@ -6893,7 +6894,7 @@
       </c>
       <c r="I63" s="31"/>
     </row>
-    <row r="64" spans="1:9" ht="116" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:9" ht="135">
       <c r="A64" s="29" t="s">
         <v>84</v>
       </c>
@@ -6918,7 +6919,7 @@
       </c>
       <c r="I64" s="31"/>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:9" ht="30">
       <c r="A65" s="29" t="s">
         <v>85</v>
       </c>
@@ -6943,7 +6944,7 @@
       </c>
       <c r="I65" s="31"/>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:9" ht="30">
       <c r="A66" s="29" t="s">
         <v>86</v>
       </c>
@@ -6968,7 +6969,7 @@
       </c>
       <c r="I66" s="31"/>
     </row>
-    <row r="67" spans="1:9" ht="130.5" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:9" ht="135">
       <c r="A67" s="29" t="s">
         <v>87</v>
       </c>
@@ -6993,7 +6994,7 @@
       </c>
       <c r="I67" s="31"/>
     </row>
-    <row r="68" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:9" ht="30">
       <c r="A68" s="29" t="s">
         <v>88</v>
       </c>
@@ -7018,7 +7019,7 @@
       </c>
       <c r="I68" s="31"/>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:9" ht="30">
       <c r="A69" s="29" t="s">
         <v>89</v>
       </c>
@@ -7043,7 +7044,7 @@
       </c>
       <c r="I69" s="31"/>
     </row>
-    <row r="70" spans="1:9" ht="130.5" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:9" ht="135">
       <c r="A70" s="29" t="s">
         <v>90</v>
       </c>
@@ -7068,7 +7069,7 @@
       </c>
       <c r="I70" s="31"/>
     </row>
-    <row r="71" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:9" ht="30">
       <c r="A71" s="29" t="s">
         <v>91</v>
       </c>
@@ -7093,7 +7094,7 @@
       </c>
       <c r="I71" s="31"/>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:9" ht="30">
       <c r="A72" s="29" t="s">
         <v>92</v>
       </c>
@@ -7118,7 +7119,7 @@
       </c>
       <c r="I72" s="31"/>
     </row>
-    <row r="73" spans="1:9" ht="130.5" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:9" ht="135">
       <c r="A73" s="29" t="s">
         <v>93</v>
       </c>
@@ -7143,7 +7144,7 @@
       </c>
       <c r="I73" s="31"/>
     </row>
-    <row r="74" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:9" ht="30">
       <c r="A74" s="29" t="s">
         <v>94</v>
       </c>
@@ -7168,7 +7169,7 @@
       </c>
       <c r="I74" s="31"/>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:9">
       <c r="A75" s="29" t="s">
         <v>95</v>
       </c>
@@ -7193,7 +7194,7 @@
       </c>
       <c r="I75" s="31"/>
     </row>
-    <row r="76" spans="1:9" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:9" ht="105">
       <c r="A76" s="29" t="s">
         <v>96</v>
       </c>
@@ -7218,7 +7219,7 @@
       </c>
       <c r="I76" s="31"/>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:9">
       <c r="A77" s="29" t="s">
         <v>97</v>
       </c>
@@ -7243,7 +7244,7 @@
       </c>
       <c r="I77" s="31"/>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:9">
       <c r="A78" s="29" t="s">
         <v>98</v>
       </c>
@@ -7268,7 +7269,7 @@
       </c>
       <c r="I78" s="31"/>
     </row>
-    <row r="79" spans="1:9" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:9" ht="105">
       <c r="A79" s="29" t="s">
         <v>99</v>
       </c>
@@ -7293,7 +7294,7 @@
       </c>
       <c r="I79" s="31"/>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:9">
       <c r="A80" s="29" t="s">
         <v>100</v>
       </c>
@@ -7318,7 +7319,7 @@
       </c>
       <c r="I80" s="31"/>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:9">
       <c r="A81" s="29" t="s">
         <v>101</v>
       </c>
@@ -7343,7 +7344,7 @@
       </c>
       <c r="I81" s="31"/>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:9">
       <c r="A82" s="29" t="s">
         <v>102</v>
       </c>
@@ -7368,7 +7369,7 @@
       </c>
       <c r="I82" s="31"/>
     </row>
-    <row r="83" spans="1:9" ht="246.5" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:9" ht="285">
       <c r="A83" s="29" t="s">
         <v>103</v>
       </c>
@@ -7393,7 +7394,7 @@
       </c>
       <c r="I83" s="31"/>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:9">
       <c r="A84" s="29" t="s">
         <v>104</v>
       </c>
@@ -7418,7 +7419,7 @@
       </c>
       <c r="I84" s="31"/>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:9">
       <c r="A85" s="29" t="s">
         <v>105</v>
       </c>
@@ -7443,7 +7444,7 @@
       </c>
       <c r="I85" s="31"/>
     </row>
-    <row r="86" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:9" ht="30">
       <c r="A86" s="29" t="s">
         <v>106</v>
       </c>
@@ -7468,7 +7469,7 @@
       </c>
       <c r="I86" s="31"/>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:9">
       <c r="A87" s="29" t="s">
         <v>107</v>
       </c>
@@ -7493,7 +7494,7 @@
       </c>
       <c r="I87" s="31"/>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:9">
       <c r="A88" s="29" t="s">
         <v>108</v>
       </c>
@@ -7518,7 +7519,7 @@
       </c>
       <c r="I88" s="31"/>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:9">
       <c r="A89" s="29" t="s">
         <v>109</v>
       </c>
@@ -7543,7 +7544,7 @@
       </c>
       <c r="I89" s="31"/>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:9">
       <c r="A90" s="29" t="s">
         <v>110</v>
       </c>
@@ -7568,7 +7569,7 @@
       </c>
       <c r="I90" s="31"/>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:9" ht="30">
       <c r="A91" s="29" t="s">
         <v>111</v>
       </c>
@@ -7593,7 +7594,7 @@
       </c>
       <c r="I91" s="31"/>
     </row>
-    <row r="92" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:9" ht="30">
       <c r="A92" s="29" t="s">
         <v>112</v>
       </c>
@@ -7618,7 +7619,7 @@
       </c>
       <c r="I92" s="31"/>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:9">
       <c r="A93" s="29" t="s">
         <v>113</v>
       </c>
@@ -7643,7 +7644,7 @@
       </c>
       <c r="I93" s="31"/>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:9" ht="30">
       <c r="A94" s="29" t="s">
         <v>114</v>
       </c>
@@ -7668,7 +7669,7 @@
       </c>
       <c r="I94" s="31"/>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:9">
       <c r="A95" s="29" t="s">
         <v>115</v>
       </c>
@@ -7693,7 +7694,7 @@
       </c>
       <c r="I95" s="31"/>
     </row>
-    <row r="96" spans="1:9" ht="130.5" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:9" ht="135">
       <c r="A96" s="29" t="s">
         <v>116</v>
       </c>
@@ -7718,7 +7719,7 @@
       </c>
       <c r="I96" s="31"/>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:9">
       <c r="A97" s="29" t="s">
         <v>117</v>
       </c>
@@ -7743,7 +7744,7 @@
       </c>
       <c r="I97" s="31"/>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:9">
       <c r="A98" s="29" t="s">
         <v>118</v>
       </c>
@@ -7768,7 +7769,7 @@
       </c>
       <c r="I98" s="31"/>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:9">
       <c r="A99" s="29" t="s">
         <v>119</v>
       </c>
@@ -7793,7 +7794,7 @@
       </c>
       <c r="I99" s="31"/>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:9">
       <c r="A100" s="29" t="s">
         <v>120</v>
       </c>
@@ -7818,7 +7819,7 @@
       </c>
       <c r="I100" s="31"/>
     </row>
-    <row r="101" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:9" ht="30">
       <c r="A101" s="29" t="s">
         <v>121</v>
       </c>
@@ -7843,7 +7844,7 @@
       </c>
       <c r="I101" s="31"/>
     </row>
-    <row r="102" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:9" ht="30">
       <c r="A102" s="29" t="s">
         <v>122</v>
       </c>
@@ -7868,7 +7869,7 @@
       </c>
       <c r="I102" s="31"/>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:9">
       <c r="A103" s="29" t="s">
         <v>123</v>
       </c>
@@ -7893,7 +7894,7 @@
       </c>
       <c r="I103" s="31"/>
     </row>
-    <row r="104" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:9" ht="30">
       <c r="A104" s="29" t="s">
         <v>124</v>
       </c>
@@ -7918,7 +7919,7 @@
       </c>
       <c r="I104" s="31"/>
     </row>
-    <row r="105" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:9" ht="30">
       <c r="A105" s="29" t="s">
         <v>125</v>
       </c>
@@ -7943,7 +7944,7 @@
       </c>
       <c r="I105" s="31"/>
     </row>
-    <row r="106" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:9" ht="30">
       <c r="A106" s="29" t="s">
         <v>126</v>
       </c>
@@ -7968,7 +7969,7 @@
       </c>
       <c r="I106" s="31"/>
     </row>
-    <row r="107" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:9" ht="30">
       <c r="A107" s="29" t="s">
         <v>127</v>
       </c>
@@ -7993,7 +7994,7 @@
       </c>
       <c r="I107" s="31"/>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:9">
       <c r="A108" s="29" t="s">
         <v>128</v>
       </c>
@@ -8001,7 +8002,7 @@
         <v>544</v>
       </c>
       <c r="C108" s="20" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="D108" s="29"/>
       <c r="E108" s="29" t="s">
@@ -8018,7 +8019,7 @@
       </c>
       <c r="I108" s="31"/>
     </row>
-    <row r="109" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:9" ht="30">
       <c r="A109" s="29" t="s">
         <v>129</v>
       </c>
@@ -8026,7 +8027,7 @@
         <v>544</v>
       </c>
       <c r="C109" s="20" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="D109" s="29"/>
       <c r="E109" s="29" t="s">
@@ -8043,7 +8044,7 @@
       </c>
       <c r="I109" s="31"/>
     </row>
-    <row r="110" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:9" ht="30">
       <c r="A110" s="29" t="s">
         <v>130</v>
       </c>
@@ -8051,7 +8052,7 @@
         <v>544</v>
       </c>
       <c r="C110" s="20" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="D110" s="29"/>
       <c r="E110" s="29" t="s">
@@ -8068,7 +8069,7 @@
       </c>
       <c r="I110" s="31"/>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:9" ht="30">
       <c r="A111" s="29" t="s">
         <v>131</v>
       </c>
@@ -8093,7 +8094,7 @@
       </c>
       <c r="I111" s="31"/>
     </row>
-    <row r="112" spans="1:9" ht="217.5" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:9" ht="240">
       <c r="A112" s="29" t="s">
         <v>132</v>
       </c>
@@ -8118,7 +8119,7 @@
       </c>
       <c r="I112" s="31"/>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:9">
       <c r="A113" s="29" t="s">
         <v>133</v>
       </c>
@@ -8143,7 +8144,7 @@
       </c>
       <c r="I113" s="31"/>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:9">
       <c r="A114" s="29" t="s">
         <v>134</v>
       </c>
@@ -8168,7 +8169,7 @@
       </c>
       <c r="I114" s="31"/>
     </row>
-    <row r="115" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:9" ht="30">
       <c r="A115" s="22" t="s">
         <v>135</v>
       </c>
@@ -8193,7 +8194,7 @@
       </c>
       <c r="I115" s="31"/>
     </row>
-    <row r="116" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:9" ht="30">
       <c r="A116" s="22" t="s">
         <v>1133</v>
       </c>
@@ -8218,7 +8219,7 @@
       </c>
       <c r="I116" s="31"/>
     </row>
-    <row r="117" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:9" ht="30">
       <c r="A117" s="29" t="s">
         <v>136</v>
       </c>
@@ -8243,7 +8244,7 @@
       </c>
       <c r="I117" s="31"/>
     </row>
-    <row r="118" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:9" ht="30">
       <c r="A118" s="29" t="s">
         <v>137</v>
       </c>
@@ -8268,7 +8269,7 @@
       </c>
       <c r="I118" s="31"/>
     </row>
-    <row r="119" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:9" ht="30">
       <c r="A119" s="29" t="s">
         <v>138</v>
       </c>
@@ -8293,7 +8294,7 @@
       </c>
       <c r="I119" s="31"/>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:9">
       <c r="A120" s="29" t="s">
         <v>139</v>
       </c>
@@ -8318,7 +8319,7 @@
       </c>
       <c r="I120" s="31"/>
     </row>
-    <row r="121" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:9" ht="30">
       <c r="A121" s="29" t="s">
         <v>140</v>
       </c>
@@ -8343,7 +8344,7 @@
       </c>
       <c r="I121" s="31"/>
     </row>
-    <row r="122" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:9" ht="30">
       <c r="A122" s="29" t="s">
         <v>141</v>
       </c>
@@ -8368,7 +8369,7 @@
       </c>
       <c r="I122" s="31"/>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:9" ht="30">
       <c r="A123" s="29" t="s">
         <v>142</v>
       </c>
@@ -8393,7 +8394,7 @@
       </c>
       <c r="I123" s="31"/>
     </row>
-    <row r="124" spans="1:9" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:9" ht="105">
       <c r="A124" s="29" t="s">
         <v>143</v>
       </c>
@@ -8418,7 +8419,7 @@
       </c>
       <c r="I124" s="31"/>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:9" ht="30">
       <c r="A125" s="29" t="s">
         <v>144</v>
       </c>
@@ -8443,7 +8444,7 @@
       </c>
       <c r="I125" s="31"/>
     </row>
-    <row r="126" spans="1:9" ht="159.5" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:9" ht="165">
       <c r="A126" s="29" t="s">
         <v>145</v>
       </c>
@@ -8468,7 +8469,7 @@
       </c>
       <c r="I126" s="31"/>
     </row>
-    <row r="127" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:9" ht="45">
       <c r="A127" s="29" t="s">
         <v>146</v>
       </c>
@@ -8493,7 +8494,7 @@
       </c>
       <c r="I127" s="31"/>
     </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:9">
       <c r="A128" s="29" t="s">
         <v>147</v>
       </c>
@@ -8518,7 +8519,7 @@
       </c>
       <c r="I128" s="31"/>
     </row>
-    <row r="129" spans="1:9" ht="145" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:9" ht="180">
       <c r="A129" s="29" t="s">
         <v>148</v>
       </c>
@@ -8543,7 +8544,7 @@
       </c>
       <c r="I129" s="31"/>
     </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:9">
       <c r="A130" s="29" t="s">
         <v>149</v>
       </c>
@@ -8568,7 +8569,7 @@
       </c>
       <c r="I130" s="31"/>
     </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:9">
       <c r="A131" s="29" t="s">
         <v>150</v>
       </c>
@@ -8593,7 +8594,7 @@
       </c>
       <c r="I131" s="31"/>
     </row>
-    <row r="132" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:9" ht="30">
       <c r="A132" s="29" t="s">
         <v>151</v>
       </c>
@@ -8618,7 +8619,7 @@
       </c>
       <c r="I132" s="31"/>
     </row>
-    <row r="133" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:9" ht="30">
       <c r="A133" s="29" t="s">
         <v>152</v>
       </c>
@@ -8643,7 +8644,7 @@
       </c>
       <c r="I133" s="31"/>
     </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:9">
       <c r="A134" s="29" t="s">
         <v>153</v>
       </c>
@@ -8668,7 +8669,7 @@
       </c>
       <c r="I134" s="31"/>
     </row>
-    <row r="135" spans="1:9" ht="116" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:9" ht="150">
       <c r="A135" s="29" t="s">
         <v>154</v>
       </c>
@@ -8693,7 +8694,7 @@
       </c>
       <c r="I135" s="31"/>
     </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:9">
       <c r="A136" s="29" t="s">
         <v>155</v>
       </c>
@@ -8718,7 +8719,7 @@
       </c>
       <c r="I136" s="31"/>
     </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:9">
       <c r="A137" s="29" t="s">
         <v>156</v>
       </c>
@@ -8743,7 +8744,7 @@
       </c>
       <c r="I137" s="31"/>
     </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:9">
       <c r="A138" s="29" t="s">
         <v>157</v>
       </c>
@@ -8768,7 +8769,7 @@
       </c>
       <c r="I138" s="31"/>
     </row>
-    <row r="139" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:9" ht="30">
       <c r="A139" s="29" t="s">
         <v>158</v>
       </c>
@@ -8793,7 +8794,7 @@
       </c>
       <c r="I139" s="31"/>
     </row>
-    <row r="140" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:9" ht="30">
       <c r="A140" s="29" t="s">
         <v>159</v>
       </c>
@@ -8818,7 +8819,7 @@
       </c>
       <c r="I140" s="31"/>
     </row>
-    <row r="141" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:9" ht="45">
       <c r="A141" s="29" t="s">
         <v>160</v>
       </c>
@@ -8843,7 +8844,7 @@
       </c>
       <c r="I141" s="31"/>
     </row>
-    <row r="142" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:9" ht="30">
       <c r="A142" s="29" t="s">
         <v>161</v>
       </c>
@@ -8868,7 +8869,7 @@
       </c>
       <c r="I142" s="31"/>
     </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:9">
       <c r="A143" s="29" t="s">
         <v>162</v>
       </c>
@@ -8893,7 +8894,7 @@
       </c>
       <c r="I143" s="31"/>
     </row>
-    <row r="144" spans="1:9" ht="232" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:9" ht="240">
       <c r="A144" s="29" t="s">
         <v>163</v>
       </c>
@@ -8918,7 +8919,7 @@
       </c>
       <c r="I144" s="31"/>
     </row>
-    <row r="145" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:9" ht="30">
       <c r="A145" s="29" t="s">
         <v>164</v>
       </c>
@@ -8943,7 +8944,7 @@
       </c>
       <c r="I145" s="31"/>
     </row>
-    <row r="146" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:9" ht="30">
       <c r="A146" s="29" t="s">
         <v>165</v>
       </c>
@@ -8968,7 +8969,7 @@
       </c>
       <c r="I146" s="31"/>
     </row>
-    <row r="147" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:9" ht="30">
       <c r="A147" s="29" t="s">
         <v>166</v>
       </c>
@@ -8993,7 +8994,7 @@
       </c>
       <c r="I147" s="31"/>
     </row>
-    <row r="148" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:9" ht="30">
       <c r="A148" s="29" t="s">
         <v>167</v>
       </c>
@@ -9018,7 +9019,7 @@
       </c>
       <c r="I148" s="31"/>
     </row>
-    <row r="149" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:9" ht="45">
       <c r="A149" s="29" t="s">
         <v>168</v>
       </c>
@@ -9043,7 +9044,7 @@
       </c>
       <c r="I149" s="31"/>
     </row>
-    <row r="150" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:9" ht="30">
       <c r="A150" s="29" t="s">
         <v>169</v>
       </c>
@@ -9068,7 +9069,7 @@
       </c>
       <c r="I150" s="31"/>
     </row>
-    <row r="151" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:9" ht="30">
       <c r="A151" s="29" t="s">
         <v>170</v>
       </c>
@@ -9093,7 +9094,7 @@
       </c>
       <c r="I151" s="31"/>
     </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:9">
       <c r="A152" s="29" t="s">
         <v>171</v>
       </c>
@@ -9118,7 +9119,7 @@
       </c>
       <c r="I152" s="31"/>
     </row>
-    <row r="153" spans="1:9" ht="130.5" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:9" ht="150">
       <c r="A153" s="29" t="s">
         <v>172</v>
       </c>
@@ -9143,7 +9144,7 @@
       </c>
       <c r="I153" s="31"/>
     </row>
-    <row r="154" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:9" ht="30">
       <c r="A154" s="29" t="s">
         <v>173</v>
       </c>
@@ -9168,7 +9169,7 @@
       </c>
       <c r="I154" s="31"/>
     </row>
-    <row r="155" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:9" ht="30">
       <c r="A155" s="29" t="s">
         <v>174</v>
       </c>
@@ -9193,7 +9194,7 @@
       </c>
       <c r="I155" s="31"/>
     </row>
-    <row r="156" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:9" ht="30">
       <c r="A156" s="29" t="s">
         <v>175</v>
       </c>
@@ -9218,7 +9219,7 @@
       </c>
       <c r="I156" s="31"/>
     </row>
-    <row r="157" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:9" ht="30">
       <c r="A157" s="29" t="s">
         <v>176</v>
       </c>
@@ -9243,7 +9244,7 @@
       </c>
       <c r="I157" s="31"/>
     </row>
-    <row r="158" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:9" ht="30">
       <c r="A158" s="29" t="s">
         <v>177</v>
       </c>
@@ -9268,7 +9269,7 @@
       </c>
       <c r="I158" s="31"/>
     </row>
-    <row r="159" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:9" ht="30">
       <c r="A159" s="29" t="s">
         <v>178</v>
       </c>
@@ -9293,7 +9294,7 @@
       </c>
       <c r="I159" s="31"/>
     </row>
-    <row r="160" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:9" ht="30">
       <c r="A160" s="29" t="s">
         <v>179</v>
       </c>
@@ -9318,7 +9319,7 @@
       </c>
       <c r="I160" s="31"/>
     </row>
-    <row r="161" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:9" ht="30">
       <c r="A161" s="29" t="s">
         <v>180</v>
       </c>
@@ -9343,7 +9344,7 @@
       </c>
       <c r="I161" s="31"/>
     </row>
-    <row r="162" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:9" ht="45">
       <c r="A162" s="29" t="s">
         <v>181</v>
       </c>
@@ -9368,7 +9369,7 @@
       </c>
       <c r="I162" s="31"/>
     </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:9">
       <c r="A163" s="29" t="s">
         <v>182</v>
       </c>
@@ -9393,7 +9394,7 @@
       </c>
       <c r="I163" s="31"/>
     </row>
-    <row r="164" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:9" ht="30">
       <c r="A164" s="29" t="s">
         <v>183</v>
       </c>
@@ -9418,7 +9419,7 @@
       </c>
       <c r="I164" s="31"/>
     </row>
-    <row r="165" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:9" ht="45">
       <c r="A165" s="29" t="s">
         <v>184</v>
       </c>
@@ -9443,7 +9444,7 @@
       </c>
       <c r="I165" s="31"/>
     </row>
-    <row r="166" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:9" ht="45">
       <c r="A166" s="29" t="s">
         <v>185</v>
       </c>
@@ -9468,7 +9469,7 @@
       </c>
       <c r="I166" s="31"/>
     </row>
-    <row r="167" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:9" ht="30">
       <c r="A167" s="29" t="s">
         <v>186</v>
       </c>
@@ -9493,7 +9494,7 @@
       </c>
       <c r="I167" s="31"/>
     </row>
-    <row r="168" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:9" ht="45">
       <c r="A168" s="29" t="s">
         <v>187</v>
       </c>
@@ -9518,7 +9519,7 @@
       </c>
       <c r="I168" s="31"/>
     </row>
-    <row r="169" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:9" ht="45">
       <c r="A169" s="29" t="s">
         <v>188</v>
       </c>
@@ -9543,7 +9544,7 @@
       </c>
       <c r="I169" s="31"/>
     </row>
-    <row r="170" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:9" ht="45">
       <c r="A170" s="29" t="s">
         <v>189</v>
       </c>
@@ -9568,7 +9569,7 @@
       </c>
       <c r="I170" s="31"/>
     </row>
-    <row r="171" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:9" ht="45">
       <c r="A171" s="29" t="s">
         <v>190</v>
       </c>
@@ -9593,7 +9594,7 @@
       </c>
       <c r="I171" s="31"/>
     </row>
-    <row r="172" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:9" ht="30">
       <c r="A172" s="29" t="s">
         <v>191</v>
       </c>
@@ -9618,7 +9619,7 @@
       </c>
       <c r="I172" s="31"/>
     </row>
-    <row r="173" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:9" ht="30">
       <c r="A173" s="29" t="s">
         <v>192</v>
       </c>
@@ -9643,7 +9644,7 @@
       </c>
       <c r="I173" s="31"/>
     </row>
-    <row r="174" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:9" ht="45">
       <c r="A174" s="29" t="s">
         <v>193</v>
       </c>
@@ -9668,7 +9669,7 @@
       </c>
       <c r="I174" s="31"/>
     </row>
-    <row r="175" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:9" ht="45">
       <c r="A175" s="29" t="s">
         <v>194</v>
       </c>
@@ -9693,7 +9694,7 @@
       </c>
       <c r="I175" s="31"/>
     </row>
-    <row r="176" spans="1:9" ht="116" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:9" ht="135">
       <c r="A176" s="29" t="s">
         <v>195</v>
       </c>
@@ -9718,7 +9719,7 @@
       </c>
       <c r="I176" s="31"/>
     </row>
-    <row r="177" spans="1:9" ht="58" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:9" ht="60">
       <c r="A177" s="29" t="s">
         <v>196</v>
       </c>
@@ -9743,7 +9744,7 @@
       </c>
       <c r="I177" s="31"/>
     </row>
-    <row r="178" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:9" ht="30">
       <c r="A178" s="29" t="s">
         <v>197</v>
       </c>
@@ -9768,7 +9769,7 @@
       </c>
       <c r="I178" s="31"/>
     </row>
-    <row r="179" spans="1:9" ht="58" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:9" ht="60">
       <c r="A179" s="29" t="s">
         <v>198</v>
       </c>
@@ -9793,7 +9794,7 @@
       </c>
       <c r="I179" s="31"/>
     </row>
-    <row r="180" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:9" ht="45">
       <c r="A180" s="29" t="s">
         <v>199</v>
       </c>
@@ -9818,7 +9819,7 @@
       </c>
       <c r="I180" s="31"/>
     </row>
-    <row r="181" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:9" ht="45">
       <c r="A181" s="29" t="s">
         <v>200</v>
       </c>
@@ -9843,7 +9844,7 @@
       </c>
       <c r="I181" s="31"/>
     </row>
-    <row r="182" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:9" ht="45">
       <c r="A182" s="29" t="s">
         <v>201</v>
       </c>
@@ -9868,7 +9869,7 @@
       </c>
       <c r="I182" s="31"/>
     </row>
-    <row r="183" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:9" ht="45">
       <c r="A183" s="29" t="s">
         <v>202</v>
       </c>
@@ -9893,7 +9894,7 @@
       </c>
       <c r="I183" s="31"/>
     </row>
-    <row r="184" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:9" ht="45">
       <c r="A184" s="29" t="s">
         <v>203</v>
       </c>
@@ -9918,7 +9919,7 @@
       </c>
       <c r="I184" s="31"/>
     </row>
-    <row r="185" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:9" ht="45">
       <c r="A185" s="29" t="s">
         <v>204</v>
       </c>
@@ -9943,7 +9944,7 @@
       </c>
       <c r="I185" s="31"/>
     </row>
-    <row r="186" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:9" ht="45">
       <c r="A186" s="29" t="s">
         <v>205</v>
       </c>
@@ -9968,7 +9969,7 @@
       </c>
       <c r="I186" s="31"/>
     </row>
-    <row r="187" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:9" ht="45">
       <c r="A187" s="29" t="s">
         <v>206</v>
       </c>
@@ -9993,7 +9994,7 @@
       </c>
       <c r="I187" s="31"/>
     </row>
-    <row r="188" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:9" ht="45">
       <c r="A188" s="29" t="s">
         <v>207</v>
       </c>
@@ -10018,7 +10019,7 @@
       </c>
       <c r="I188" s="31"/>
     </row>
-    <row r="189" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:9" ht="45">
       <c r="A189" s="29" t="s">
         <v>208</v>
       </c>
@@ -10043,7 +10044,7 @@
       </c>
       <c r="I189" s="31"/>
     </row>
-    <row r="190" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:9" ht="45">
       <c r="A190" s="29" t="s">
         <v>209</v>
       </c>
@@ -10068,7 +10069,7 @@
       </c>
       <c r="I190" s="31"/>
     </row>
-    <row r="191" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:9" ht="30">
       <c r="A191" s="29" t="s">
         <v>210</v>
       </c>
@@ -10093,7 +10094,7 @@
       </c>
       <c r="I191" s="31"/>
     </row>
-    <row r="192" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:9" ht="45">
       <c r="A192" s="29" t="s">
         <v>211</v>
       </c>
@@ -10118,7 +10119,7 @@
       </c>
       <c r="I192" s="31"/>
     </row>
-    <row r="193" spans="1:9" ht="58" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:9" ht="60">
       <c r="A193" s="29" t="s">
         <v>212</v>
       </c>
@@ -10143,7 +10144,7 @@
       </c>
       <c r="I193" s="31"/>
     </row>
-    <row r="194" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:9" ht="45">
       <c r="A194" s="29" t="s">
         <v>213</v>
       </c>
@@ -10168,7 +10169,7 @@
       </c>
       <c r="I194" s="31"/>
     </row>
-    <row r="195" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:9" ht="30">
       <c r="A195" s="29" t="s">
         <v>214</v>
       </c>
@@ -10193,7 +10194,7 @@
       </c>
       <c r="I195" s="31"/>
     </row>
-    <row r="196" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:9" ht="45">
       <c r="A196" s="29" t="s">
         <v>215</v>
       </c>
@@ -10218,7 +10219,7 @@
       </c>
       <c r="I196" s="31"/>
     </row>
-    <row r="197" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:9" ht="30">
       <c r="A197" s="29" t="s">
         <v>216</v>
       </c>
@@ -10243,7 +10244,7 @@
       </c>
       <c r="I197" s="31"/>
     </row>
-    <row r="198" spans="1:9" ht="159.5" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:9" ht="195">
       <c r="A198" s="29" t="s">
         <v>217</v>
       </c>
@@ -10268,7 +10269,7 @@
       </c>
       <c r="I198" s="31"/>
     </row>
-    <row r="199" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:9" ht="75">
       <c r="A199" s="29" t="s">
         <v>218</v>
       </c>
@@ -10293,7 +10294,7 @@
       </c>
       <c r="I199" s="31"/>
     </row>
-    <row r="200" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:9" ht="90">
       <c r="A200" s="29" t="s">
         <v>219</v>
       </c>
@@ -10318,7 +10319,7 @@
       </c>
       <c r="I200" s="31"/>
     </row>
-    <row r="201" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:9" ht="30">
       <c r="A201" s="29" t="s">
         <v>220</v>
       </c>
@@ -10343,7 +10344,7 @@
       </c>
       <c r="I201" s="31"/>
     </row>
-    <row r="202" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:9" ht="30">
       <c r="A202" s="22" t="s">
         <v>1139</v>
       </c>
@@ -10368,7 +10369,7 @@
       </c>
       <c r="I202" s="31"/>
     </row>
-    <row r="203" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:9" ht="45">
       <c r="A203" s="29" t="s">
         <v>221</v>
       </c>
@@ -10393,7 +10394,7 @@
       </c>
       <c r="I203" s="31"/>
     </row>
-    <row r="204" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:9" ht="60">
       <c r="A204" s="29" t="s">
         <v>222</v>
       </c>
@@ -10418,7 +10419,7 @@
       </c>
       <c r="I204" s="31"/>
     </row>
-    <row r="205" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:9" ht="30">
       <c r="A205" s="29" t="s">
         <v>223</v>
       </c>
@@ -10443,7 +10444,7 @@
       </c>
       <c r="I205" s="31"/>
     </row>
-    <row r="206" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:9" ht="45">
       <c r="A206" s="29" t="s">
         <v>224</v>
       </c>
@@ -10468,7 +10469,7 @@
       </c>
       <c r="I206" s="31"/>
     </row>
-    <row r="207" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:9" ht="30">
       <c r="A207" s="29" t="s">
         <v>225</v>
       </c>
@@ -10493,7 +10494,7 @@
       </c>
       <c r="I207" s="31"/>
     </row>
-    <row r="208" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:9" ht="30">
       <c r="A208" s="29" t="s">
         <v>226</v>
       </c>
@@ -10518,7 +10519,7 @@
       </c>
       <c r="I208" s="31"/>
     </row>
-    <row r="209" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:9" ht="30">
       <c r="A209" s="29" t="s">
         <v>227</v>
       </c>
@@ -10543,7 +10544,7 @@
       </c>
       <c r="I209" s="31"/>
     </row>
-    <row r="210" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:9" ht="45">
       <c r="A210" s="29" t="s">
         <v>228</v>
       </c>
@@ -10568,7 +10569,7 @@
       </c>
       <c r="I210" s="31"/>
     </row>
-    <row r="211" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:9" ht="45">
       <c r="A211" s="29" t="s">
         <v>229</v>
       </c>
@@ -10593,7 +10594,7 @@
       </c>
       <c r="I211" s="31"/>
     </row>
-    <row r="212" spans="1:9" ht="116" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:9" ht="150">
       <c r="A212" s="29" t="s">
         <v>230</v>
       </c>
@@ -10618,7 +10619,7 @@
       </c>
       <c r="I212" s="31"/>
     </row>
-    <row r="213" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:9">
       <c r="A213" s="29" t="s">
         <v>231</v>
       </c>
@@ -10643,7 +10644,7 @@
       </c>
       <c r="I213" s="31"/>
     </row>
-    <row r="214" spans="1:9" ht="130.5" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:9" ht="165">
       <c r="A214" s="29" t="s">
         <v>232</v>
       </c>
@@ -10668,7 +10669,7 @@
       </c>
       <c r="I214" s="31"/>
     </row>
-    <row r="215" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:9" ht="30">
       <c r="A215" s="22" t="s">
         <v>233</v>
       </c>
@@ -10693,7 +10694,7 @@
       </c>
       <c r="I215" s="31"/>
     </row>
-    <row r="216" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:9">
       <c r="A216" s="22" t="s">
         <v>1141</v>
       </c>
@@ -10701,7 +10702,7 @@
         <v>562</v>
       </c>
       <c r="C216" s="20" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="D216" s="29"/>
       <c r="E216" s="29" t="s">
@@ -10718,7 +10719,7 @@
       </c>
       <c r="I216" s="31"/>
     </row>
-    <row r="217" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:9" ht="30">
       <c r="A217" s="29" t="s">
         <v>234</v>
       </c>
@@ -10743,7 +10744,7 @@
       </c>
       <c r="I217" s="31"/>
     </row>
-    <row r="218" spans="1:9" ht="174" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:9" ht="225">
       <c r="A218" s="29" t="s">
         <v>235</v>
       </c>
@@ -10768,7 +10769,7 @@
       </c>
       <c r="I218" s="31"/>
     </row>
-    <row r="219" spans="1:9" ht="58" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:9" ht="75">
       <c r="A219" s="29" t="s">
         <v>236</v>
       </c>
@@ -10793,7 +10794,7 @@
       </c>
       <c r="I219" s="31"/>
     </row>
-    <row r="220" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:9" ht="90">
       <c r="A220" s="22" t="s">
         <v>237</v>
       </c>
@@ -10818,7 +10819,7 @@
       </c>
       <c r="I220" s="31"/>
     </row>
-    <row r="221" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:9" ht="30">
       <c r="A221" s="22" t="s">
         <v>1142</v>
       </c>
@@ -10843,7 +10844,7 @@
       </c>
       <c r="I221" s="31"/>
     </row>
-    <row r="222" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:9" ht="30">
       <c r="A222" s="29" t="s">
         <v>238</v>
       </c>
@@ -10868,7 +10869,7 @@
       </c>
       <c r="I222" s="31"/>
     </row>
-    <row r="223" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:9" ht="60">
       <c r="A223" s="29" t="s">
         <v>239</v>
       </c>
@@ -10893,7 +10894,7 @@
       </c>
       <c r="I223" s="31"/>
     </row>
-    <row r="224" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:9" ht="60">
       <c r="A224" s="29" t="s">
         <v>240</v>
       </c>
@@ -10918,7 +10919,7 @@
       </c>
       <c r="I224" s="31"/>
     </row>
-    <row r="225" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:9" ht="30">
       <c r="A225" s="29" t="s">
         <v>241</v>
       </c>
@@ -10943,7 +10944,7 @@
       </c>
       <c r="I225" s="31"/>
     </row>
-    <row r="226" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:9" ht="60">
       <c r="A226" s="29" t="s">
         <v>242</v>
       </c>
@@ -10968,7 +10969,7 @@
       </c>
       <c r="I226" s="31"/>
     </row>
-    <row r="227" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:9" ht="30">
       <c r="A227" s="29" t="s">
         <v>243</v>
       </c>
@@ -10993,7 +10994,7 @@
       </c>
       <c r="I227" s="31"/>
     </row>
-    <row r="228" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:9" ht="30">
       <c r="A228" s="29" t="s">
         <v>244</v>
       </c>
@@ -11018,7 +11019,7 @@
       </c>
       <c r="I228" s="31"/>
     </row>
-    <row r="229" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:9" ht="30">
       <c r="A229" s="29" t="s">
         <v>245</v>
       </c>
@@ -11043,7 +11044,7 @@
       </c>
       <c r="I229" s="31"/>
     </row>
-    <row r="230" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:9" ht="45">
       <c r="A230" s="29" t="s">
         <v>246</v>
       </c>
@@ -11068,7 +11069,7 @@
       </c>
       <c r="I230" s="31"/>
     </row>
-    <row r="231" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:9" ht="45">
       <c r="A231" s="29" t="s">
         <v>247</v>
       </c>
@@ -11093,7 +11094,7 @@
       </c>
       <c r="I231" s="31"/>
     </row>
-    <row r="232" spans="1:9" ht="130.5" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:9" ht="150">
       <c r="A232" s="29" t="s">
         <v>248</v>
       </c>
@@ -11118,7 +11119,7 @@
       </c>
       <c r="I232" s="31"/>
     </row>
-    <row r="233" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:9">
       <c r="A233" s="29" t="s">
         <v>249</v>
       </c>
@@ -11143,7 +11144,7 @@
       </c>
       <c r="I233" s="31"/>
     </row>
-    <row r="234" spans="1:9" ht="145" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:9" ht="165">
       <c r="A234" s="29" t="s">
         <v>250</v>
       </c>
@@ -11168,7 +11169,7 @@
       </c>
       <c r="I234" s="31"/>
     </row>
-    <row r="235" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:9">
       <c r="A235" s="22" t="s">
         <v>251</v>
       </c>
@@ -11193,7 +11194,7 @@
       </c>
       <c r="I235" s="31"/>
     </row>
-    <row r="236" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:9">
       <c r="A236" s="22" t="s">
         <v>1144</v>
       </c>
@@ -11201,7 +11202,7 @@
         <v>568</v>
       </c>
       <c r="C236" s="20" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="D236" s="29"/>
       <c r="E236" s="29" t="s">
@@ -11218,7 +11219,7 @@
       </c>
       <c r="I236" s="31"/>
     </row>
-    <row r="237" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:9" ht="30">
       <c r="A237" s="29" t="s">
         <v>252</v>
       </c>
@@ -11243,7 +11244,7 @@
       </c>
       <c r="I237" s="31"/>
     </row>
-    <row r="238" spans="1:9" ht="159.5" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:9" ht="195">
       <c r="A238" s="29" t="s">
         <v>253</v>
       </c>
@@ -11268,7 +11269,7 @@
       </c>
       <c r="I238" s="31"/>
     </row>
-    <row r="239" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:9" ht="75">
       <c r="A239" s="29" t="s">
         <v>254</v>
       </c>
@@ -11293,7 +11294,7 @@
       </c>
       <c r="I239" s="31"/>
     </row>
-    <row r="240" spans="1:9" ht="58" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:9" ht="75">
       <c r="A240" s="29" t="s">
         <v>255</v>
       </c>
@@ -11318,7 +11319,7 @@
       </c>
       <c r="I240" s="31"/>
     </row>
-    <row r="241" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:9" ht="30">
       <c r="A241" s="29" t="s">
         <v>256</v>
       </c>
@@ -11343,7 +11344,7 @@
       </c>
       <c r="I241" s="31"/>
     </row>
-    <row r="242" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:9" ht="45">
       <c r="A242" s="29" t="s">
         <v>257</v>
       </c>
@@ -11368,7 +11369,7 @@
       </c>
       <c r="I242" s="31"/>
     </row>
-    <row r="243" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:9" ht="60">
       <c r="A243" s="29" t="s">
         <v>258</v>
       </c>
@@ -11393,7 +11394,7 @@
       </c>
       <c r="I243" s="31"/>
     </row>
-    <row r="244" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:9" ht="30">
       <c r="A244" s="29" t="s">
         <v>259</v>
       </c>
@@ -11418,7 +11419,7 @@
       </c>
       <c r="I244" s="31"/>
     </row>
-    <row r="245" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:9" ht="45">
       <c r="A245" s="29" t="s">
         <v>260</v>
       </c>
@@ -11443,7 +11444,7 @@
       </c>
       <c r="I245" s="31"/>
     </row>
-    <row r="246" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:9" ht="30">
       <c r="A246" s="29" t="s">
         <v>261</v>
       </c>
@@ -11468,7 +11469,7 @@
       </c>
       <c r="I246" s="31"/>
     </row>
-    <row r="247" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:9" ht="30">
       <c r="A247" s="29" t="s">
         <v>262</v>
       </c>
@@ -11493,7 +11494,7 @@
       </c>
       <c r="I247" s="31"/>
     </row>
-    <row r="248" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:9" ht="30">
       <c r="A248" s="29" t="s">
         <v>263</v>
       </c>
@@ -11518,7 +11519,7 @@
       </c>
       <c r="I248" s="31"/>
     </row>
-    <row r="249" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:9" ht="45">
       <c r="A249" s="29" t="s">
         <v>264</v>
       </c>
@@ -11543,7 +11544,7 @@
       </c>
       <c r="I249" s="31"/>
     </row>
-    <row r="250" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:9" ht="45">
       <c r="A250" s="29" t="s">
         <v>265</v>
       </c>
@@ -11568,7 +11569,7 @@
       </c>
       <c r="I250" s="31"/>
     </row>
-    <row r="251" spans="1:9" ht="116" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:9" ht="150">
       <c r="A251" s="29" t="s">
         <v>266</v>
       </c>
@@ -11593,7 +11594,7 @@
       </c>
       <c r="I251" s="31"/>
     </row>
-    <row r="252" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:9">
       <c r="A252" s="29" t="s">
         <v>267</v>
       </c>
@@ -11618,7 +11619,7 @@
       </c>
       <c r="I252" s="31"/>
     </row>
-    <row r="253" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:9" ht="30">
       <c r="A253" s="29" t="s">
         <v>268</v>
       </c>
@@ -11643,7 +11644,7 @@
       </c>
       <c r="I253" s="31"/>
     </row>
-    <row r="254" spans="1:9" ht="130.5" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:9" ht="165">
       <c r="A254" s="29" t="s">
         <v>269</v>
       </c>
@@ -11668,7 +11669,7 @@
       </c>
       <c r="I254" s="31"/>
     </row>
-    <row r="255" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:9" ht="30">
       <c r="A255" s="29" t="s">
         <v>270</v>
       </c>
@@ -11693,7 +11694,7 @@
       </c>
       <c r="I255" s="31"/>
     </row>
-    <row r="256" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:9" ht="30">
       <c r="A256" s="29" t="s">
         <v>271</v>
       </c>
@@ -11718,7 +11719,7 @@
       </c>
       <c r="I256" s="31"/>
     </row>
-    <row r="257" spans="1:9" ht="174" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:9" ht="195">
       <c r="A257" s="29" t="s">
         <v>272</v>
       </c>
@@ -11743,7 +11744,7 @@
       </c>
       <c r="I257" s="31"/>
     </row>
-    <row r="258" spans="1:9" ht="58" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:9" ht="75">
       <c r="A258" s="29" t="s">
         <v>273</v>
       </c>
@@ -11768,7 +11769,7 @@
       </c>
       <c r="I258" s="31"/>
     </row>
-    <row r="259" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:9" ht="90">
       <c r="A259" s="22" t="s">
         <v>274</v>
       </c>
@@ -11793,7 +11794,7 @@
       </c>
       <c r="I259" s="31"/>
     </row>
-    <row r="260" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:9" ht="30">
       <c r="A260" s="22" t="s">
         <v>1145</v>
       </c>
@@ -11818,7 +11819,7 @@
       </c>
       <c r="I260" s="31"/>
     </row>
-    <row r="261" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:9" ht="60">
       <c r="A261" s="29" t="s">
         <v>275</v>
       </c>
@@ -11843,7 +11844,7 @@
       </c>
       <c r="I261" s="31"/>
     </row>
-    <row r="262" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:9" ht="60">
       <c r="A262" s="29" t="s">
         <v>276</v>
       </c>
@@ -11868,7 +11869,7 @@
       </c>
       <c r="I262" s="31"/>
     </row>
-    <row r="263" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:9" ht="30">
       <c r="A263" s="29" t="s">
         <v>277</v>
       </c>
@@ -11893,7 +11894,7 @@
       </c>
       <c r="I263" s="31"/>
     </row>
-    <row r="264" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:9" ht="45">
       <c r="A264" s="29" t="s">
         <v>278</v>
       </c>
@@ -11918,7 +11919,7 @@
       </c>
       <c r="I264" s="31"/>
     </row>
-    <row r="265" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:9" ht="30">
       <c r="A265" s="29" t="s">
         <v>279</v>
       </c>
@@ -11943,7 +11944,7 @@
       </c>
       <c r="I265" s="31"/>
     </row>
-    <row r="266" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:9" ht="30">
       <c r="A266" s="29" t="s">
         <v>280</v>
       </c>
@@ -11968,7 +11969,7 @@
       </c>
       <c r="I266" s="31"/>
     </row>
-    <row r="267" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:9" ht="30">
       <c r="A267" s="29" t="s">
         <v>281</v>
       </c>
@@ -11993,7 +11994,7 @@
       </c>
       <c r="I267" s="31"/>
     </row>
-    <row r="268" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:9" ht="45">
       <c r="A268" s="29" t="s">
         <v>282</v>
       </c>
@@ -12018,7 +12019,7 @@
       </c>
       <c r="I268" s="31"/>
     </row>
-    <row r="269" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:9" ht="45">
       <c r="A269" s="29" t="s">
         <v>283</v>
       </c>
@@ -12043,7 +12044,7 @@
       </c>
       <c r="I269" s="31"/>
     </row>
-    <row r="270" spans="1:9" ht="174" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:9" ht="195">
       <c r="A270" s="29" t="s">
         <v>284</v>
       </c>
@@ -12068,7 +12069,7 @@
       </c>
       <c r="I270" s="31"/>
     </row>
-    <row r="271" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:9">
       <c r="A271" s="29" t="s">
         <v>285</v>
       </c>
@@ -12093,7 +12094,7 @@
       </c>
       <c r="I271" s="31"/>
     </row>
-    <row r="272" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:9">
       <c r="A272" s="29" t="s">
         <v>286</v>
       </c>
@@ -12118,7 +12119,7 @@
       </c>
       <c r="I272" s="31"/>
     </row>
-    <row r="273" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:9" ht="30">
       <c r="A273" s="29" t="s">
         <v>287</v>
       </c>
@@ -12143,7 +12144,7 @@
       </c>
       <c r="I273" s="31"/>
     </row>
-    <row r="274" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:9" ht="30">
       <c r="A274" s="29" t="s">
         <v>288</v>
       </c>
@@ -12168,7 +12169,7 @@
       </c>
       <c r="I274" s="31"/>
     </row>
-    <row r="275" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:9" ht="30">
       <c r="A275" s="29" t="s">
         <v>289</v>
       </c>
@@ -12193,7 +12194,7 @@
       </c>
       <c r="I275" s="31"/>
     </row>
-    <row r="276" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+    <row r="276" spans="1:9" ht="30">
       <c r="A276" s="29" t="s">
         <v>290</v>
       </c>
@@ -12218,7 +12219,7 @@
       </c>
       <c r="I276" s="31"/>
     </row>
-    <row r="277" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="277" spans="1:9">
       <c r="A277" s="29" t="s">
         <v>291</v>
       </c>
@@ -12243,7 +12244,7 @@
       </c>
       <c r="I277" s="31"/>
     </row>
-    <row r="278" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+    <row r="278" spans="1:9" ht="30">
       <c r="A278" s="29" t="s">
         <v>292</v>
       </c>
@@ -12268,7 +12269,7 @@
       </c>
       <c r="I278" s="31"/>
     </row>
-    <row r="279" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="279" spans="1:9" ht="45">
       <c r="A279" s="29" t="s">
         <v>293</v>
       </c>
@@ -12293,7 +12294,7 @@
       </c>
       <c r="I279" s="31"/>
     </row>
-    <row r="280" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="280" spans="1:9" ht="45">
       <c r="A280" s="29" t="s">
         <v>294</v>
       </c>
@@ -12318,7 +12319,7 @@
       </c>
       <c r="I280" s="31"/>
     </row>
-    <row r="281" spans="1:9" ht="145" x14ac:dyDescent="0.35">
+    <row r="281" spans="1:9" ht="165">
       <c r="A281" s="29" t="s">
         <v>295</v>
       </c>
@@ -12343,7 +12344,7 @@
       </c>
       <c r="I281" s="31"/>
     </row>
-    <row r="282" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="282" spans="1:9">
       <c r="A282" s="29" t="s">
         <v>296</v>
       </c>
@@ -12368,7 +12369,7 @@
       </c>
       <c r="I282" s="31"/>
     </row>
-    <row r="283" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+    <row r="283" spans="1:9" ht="30">
       <c r="A283" s="29" t="s">
         <v>297</v>
       </c>
@@ -12393,7 +12394,7 @@
       </c>
       <c r="I283" s="31"/>
     </row>
-    <row r="284" spans="1:9" ht="174" x14ac:dyDescent="0.35">
+    <row r="284" spans="1:9" ht="225">
       <c r="A284" s="29" t="s">
         <v>298</v>
       </c>
@@ -12418,7 +12419,7 @@
       </c>
       <c r="I284" s="31"/>
     </row>
-    <row r="285" spans="1:9" ht="58" x14ac:dyDescent="0.35">
+    <row r="285" spans="1:9" ht="75">
       <c r="A285" s="29" t="s">
         <v>299</v>
       </c>
@@ -12443,7 +12444,7 @@
       </c>
       <c r="I285" s="31"/>
     </row>
-    <row r="286" spans="1:9" ht="145" x14ac:dyDescent="0.35">
+    <row r="286" spans="1:9" ht="165">
       <c r="A286" s="29" t="s">
         <v>300</v>
       </c>
@@ -12468,7 +12469,7 @@
       </c>
       <c r="I286" s="31"/>
     </row>
-    <row r="287" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+    <row r="287" spans="1:9" ht="30">
       <c r="A287" s="29" t="s">
         <v>301</v>
       </c>
@@ -12493,7 +12494,7 @@
       </c>
       <c r="I287" s="31"/>
     </row>
-    <row r="288" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="288" spans="1:9" ht="30">
       <c r="A288" s="22" t="s">
         <v>1149</v>
       </c>
@@ -12518,7 +12519,7 @@
       </c>
       <c r="I288" s="31"/>
     </row>
-    <row r="289" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+    <row r="289" spans="1:9" ht="30">
       <c r="A289" s="29" t="s">
         <v>302</v>
       </c>
@@ -12543,7 +12544,7 @@
       </c>
       <c r="I289" s="31"/>
     </row>
-    <row r="290" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="290" spans="1:9" ht="60">
       <c r="A290" s="29" t="s">
         <v>303</v>
       </c>
@@ -12568,7 +12569,7 @@
       </c>
       <c r="I290" s="31"/>
     </row>
-    <row r="291" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="291" spans="1:9" ht="60">
       <c r="A291" s="29" t="s">
         <v>304</v>
       </c>
@@ -12593,7 +12594,7 @@
       </c>
       <c r="I291" s="31"/>
     </row>
-    <row r="292" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+    <row r="292" spans="1:9" ht="30">
       <c r="A292" s="29" t="s">
         <v>305</v>
       </c>
@@ -12618,7 +12619,7 @@
       </c>
       <c r="I292" s="31"/>
     </row>
-    <row r="293" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="293" spans="1:9" ht="60">
       <c r="A293" s="29" t="s">
         <v>306</v>
       </c>
@@ -12643,7 +12644,7 @@
       </c>
       <c r="I293" s="31"/>
     </row>
-    <row r="294" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+    <row r="294" spans="1:9" ht="30">
       <c r="A294" s="29" t="s">
         <v>307</v>
       </c>
@@ -12668,7 +12669,7 @@
       </c>
       <c r="I294" s="31"/>
     </row>
-    <row r="295" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+    <row r="295" spans="1:9" ht="30">
       <c r="A295" s="29" t="s">
         <v>308</v>
       </c>
@@ -12693,7 +12694,7 @@
       </c>
       <c r="I295" s="31"/>
     </row>
-    <row r="296" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+    <row r="296" spans="1:9" ht="30">
       <c r="A296" s="29" t="s">
         <v>309</v>
       </c>
@@ -12718,7 +12719,7 @@
       </c>
       <c r="I296" s="31"/>
     </row>
-    <row r="297" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="297" spans="1:9" ht="45">
       <c r="A297" s="29" t="s">
         <v>310</v>
       </c>
@@ -12743,7 +12744,7 @@
       </c>
       <c r="I297" s="31"/>
     </row>
-    <row r="298" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="298" spans="1:9" ht="45">
       <c r="A298" s="29" t="s">
         <v>311</v>
       </c>
@@ -12768,7 +12769,7 @@
       </c>
       <c r="I298" s="31"/>
     </row>
-    <row r="299" spans="1:9" ht="159.5" x14ac:dyDescent="0.35">
+    <row r="299" spans="1:9" ht="195">
       <c r="A299" s="29" t="s">
         <v>312</v>
       </c>
@@ -12793,7 +12794,7 @@
       </c>
       <c r="I299" s="31"/>
     </row>
-    <row r="300" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="300" spans="1:9">
       <c r="A300" s="29" t="s">
         <v>313</v>
       </c>
@@ -12818,7 +12819,7 @@
       </c>
       <c r="I300" s="31"/>
     </row>
-    <row r="301" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+    <row r="301" spans="1:9" ht="30">
       <c r="A301" s="29" t="s">
         <v>314</v>
       </c>
@@ -12843,7 +12844,7 @@
       </c>
       <c r="I301" s="31"/>
     </row>
-    <row r="302" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+    <row r="302" spans="1:9" ht="30">
       <c r="A302" s="29" t="s">
         <v>315</v>
       </c>
@@ -12868,7 +12869,7 @@
       </c>
       <c r="I302" s="31"/>
     </row>
-    <row r="303" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+    <row r="303" spans="1:9" ht="30">
       <c r="A303" s="29" t="s">
         <v>316</v>
       </c>
@@ -12893,7 +12894,7 @@
       </c>
       <c r="I303" s="31"/>
     </row>
-    <row r="304" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="304" spans="1:9">
       <c r="A304" s="29" t="s">
         <v>317</v>
       </c>
@@ -12918,7 +12919,7 @@
       </c>
       <c r="I304" s="31"/>
     </row>
-    <row r="305" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+    <row r="305" spans="1:9" ht="30">
       <c r="A305" s="29" t="s">
         <v>318</v>
       </c>
@@ -12943,7 +12944,7 @@
       </c>
       <c r="I305" s="31"/>
     </row>
-    <row r="306" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="306" spans="1:9" ht="45">
       <c r="A306" s="29" t="s">
         <v>319</v>
       </c>
@@ -12968,7 +12969,7 @@
       </c>
       <c r="I306" s="31"/>
     </row>
-    <row r="307" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="307" spans="1:9" ht="45">
       <c r="A307" s="29" t="s">
         <v>320</v>
       </c>
@@ -12993,7 +12994,7 @@
       </c>
       <c r="I307" s="31"/>
     </row>
-    <row r="308" spans="1:9" ht="145" x14ac:dyDescent="0.35">
+    <row r="308" spans="1:9" ht="165">
       <c r="A308" s="29" t="s">
         <v>321</v>
       </c>
@@ -13018,7 +13019,7 @@
       </c>
       <c r="I308" s="31"/>
     </row>
-    <row r="309" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="309" spans="1:9" ht="30">
       <c r="A309" s="29" t="s">
         <v>322</v>
       </c>
@@ -13043,7 +13044,7 @@
       </c>
       <c r="I309" s="31"/>
     </row>
-    <row r="310" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+    <row r="310" spans="1:9" ht="30">
       <c r="A310" s="29" t="s">
         <v>323</v>
       </c>
@@ -13068,7 +13069,7 @@
       </c>
       <c r="I310" s="31"/>
     </row>
-    <row r="311" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+    <row r="311" spans="1:9" ht="30">
       <c r="A311" s="29" t="s">
         <v>324</v>
       </c>
@@ -13093,7 +13094,7 @@
       </c>
       <c r="I311" s="31"/>
     </row>
-    <row r="312" spans="1:9" ht="203" x14ac:dyDescent="0.35">
+    <row r="312" spans="1:9" ht="210">
       <c r="A312" s="29" t="s">
         <v>325</v>
       </c>
@@ -13118,7 +13119,7 @@
       </c>
       <c r="I312" s="31"/>
     </row>
-    <row r="313" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="313" spans="1:9" ht="75">
       <c r="A313" s="29" t="s">
         <v>326</v>
       </c>
@@ -13143,7 +13144,7 @@
       </c>
       <c r="I313" s="31"/>
     </row>
-    <row r="314" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="314" spans="1:9" ht="60">
       <c r="A314" s="29" t="s">
         <v>327</v>
       </c>
@@ -13168,7 +13169,7 @@
       </c>
       <c r="I314" s="31"/>
     </row>
-    <row r="315" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="315" spans="1:9" ht="60">
       <c r="A315" s="29" t="s">
         <v>328</v>
       </c>
@@ -13193,7 +13194,7 @@
       </c>
       <c r="I315" s="31"/>
     </row>
-    <row r="316" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+    <row r="316" spans="1:9" ht="30">
       <c r="A316" s="29" t="s">
         <v>329</v>
       </c>
@@ -13218,7 +13219,7 @@
       </c>
       <c r="I316" s="31"/>
     </row>
-    <row r="317" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="317" spans="1:9" ht="75">
       <c r="A317" s="29" t="s">
         <v>330</v>
       </c>
@@ -13243,7 +13244,7 @@
       </c>
       <c r="I317" s="31"/>
     </row>
-    <row r="318" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+    <row r="318" spans="1:9" ht="30">
       <c r="A318" s="29" t="s">
         <v>331</v>
       </c>
@@ -13268,7 +13269,7 @@
       </c>
       <c r="I318" s="31"/>
     </row>
-    <row r="319" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+    <row r="319" spans="1:9" ht="30">
       <c r="A319" s="29" t="s">
         <v>332</v>
       </c>
@@ -13293,7 +13294,7 @@
       </c>
       <c r="I319" s="31"/>
     </row>
-    <row r="320" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+    <row r="320" spans="1:9" ht="30">
       <c r="A320" s="29" t="s">
         <v>333</v>
       </c>
@@ -13318,7 +13319,7 @@
       </c>
       <c r="I320" s="31"/>
     </row>
-    <row r="321" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="321" spans="1:9" ht="45">
       <c r="A321" s="29" t="s">
         <v>334</v>
       </c>
@@ -13343,7 +13344,7 @@
       </c>
       <c r="I321" s="31"/>
     </row>
-    <row r="322" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="322" spans="1:9" ht="45">
       <c r="A322" s="29" t="s">
         <v>335</v>
       </c>
@@ -13368,7 +13369,7 @@
       </c>
       <c r="I322" s="31"/>
     </row>
-    <row r="323" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="323" spans="1:9" ht="90">
       <c r="A323" s="29" t="s">
         <v>336</v>
       </c>
@@ -13393,7 +13394,7 @@
       </c>
       <c r="I323" s="31"/>
     </row>
-    <row r="324" spans="1:9" ht="159.5" x14ac:dyDescent="0.35">
+    <row r="324" spans="1:9" ht="165">
       <c r="A324" s="29" t="s">
         <v>337</v>
       </c>
@@ -13418,7 +13419,7 @@
       </c>
       <c r="I324" s="31"/>
     </row>
-    <row r="325" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+    <row r="325" spans="1:9" ht="30">
       <c r="A325" s="29" t="s">
         <v>338</v>
       </c>
@@ -13443,7 +13444,7 @@
       </c>
       <c r="I325" s="31"/>
     </row>
-    <row r="326" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+    <row r="326" spans="1:9" ht="30">
       <c r="A326" s="29" t="s">
         <v>339</v>
       </c>
@@ -13468,7 +13469,7 @@
       </c>
       <c r="I326" s="31"/>
     </row>
-    <row r="327" spans="1:9" ht="174" x14ac:dyDescent="0.35">
+    <row r="327" spans="1:9" ht="225">
       <c r="A327" s="29" t="s">
         <v>340</v>
       </c>
@@ -13493,7 +13494,7 @@
       </c>
       <c r="I327" s="31"/>
     </row>
-    <row r="328" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="328" spans="1:9" ht="75">
       <c r="A328" s="29" t="s">
         <v>341</v>
       </c>
@@ -13518,7 +13519,7 @@
       </c>
       <c r="I328" s="31"/>
     </row>
-    <row r="329" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="329" spans="1:9" ht="90">
       <c r="A329" s="29" t="s">
         <v>342</v>
       </c>
@@ -13543,7 +13544,7 @@
       </c>
       <c r="I329" s="31"/>
     </row>
-    <row r="330" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+    <row r="330" spans="1:9" ht="30">
       <c r="A330" s="29" t="s">
         <v>343</v>
       </c>
@@ -13568,7 +13569,7 @@
       </c>
       <c r="I330" s="31"/>
     </row>
-    <row r="331" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="331" spans="1:9" ht="60">
       <c r="A331" s="29" t="s">
         <v>344</v>
       </c>
@@ -13593,7 +13594,7 @@
       </c>
       <c r="I331" s="31"/>
     </row>
-    <row r="332" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="332" spans="1:9" ht="60">
       <c r="A332" s="29" t="s">
         <v>345</v>
       </c>
@@ -13618,7 +13619,7 @@
       </c>
       <c r="I332" s="31"/>
     </row>
-    <row r="333" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+    <row r="333" spans="1:9" ht="30">
       <c r="A333" s="29" t="s">
         <v>346</v>
       </c>
@@ -13643,7 +13644,7 @@
       </c>
       <c r="I333" s="31"/>
     </row>
-    <row r="334" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="334" spans="1:9" ht="60">
       <c r="A334" s="29" t="s">
         <v>347</v>
       </c>
@@ -13668,7 +13669,7 @@
       </c>
       <c r="I334" s="31"/>
     </row>
-    <row r="335" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+    <row r="335" spans="1:9" ht="30">
       <c r="A335" s="29" t="s">
         <v>348</v>
       </c>
@@ -13693,7 +13694,7 @@
       </c>
       <c r="I335" s="31"/>
     </row>
-    <row r="336" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+    <row r="336" spans="1:9" ht="30">
       <c r="A336" s="29" t="s">
         <v>349</v>
       </c>
@@ -13718,7 +13719,7 @@
       </c>
       <c r="I336" s="31"/>
     </row>
-    <row r="337" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+    <row r="337" spans="1:9" ht="30">
       <c r="A337" s="29" t="s">
         <v>350</v>
       </c>
@@ -13743,7 +13744,7 @@
       </c>
       <c r="I337" s="31"/>
     </row>
-    <row r="338" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="338" spans="1:9" ht="45">
       <c r="A338" s="29" t="s">
         <v>351</v>
       </c>
@@ -13768,7 +13769,7 @@
       </c>
       <c r="I338" s="31"/>
     </row>
-    <row r="339" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="339" spans="1:9" ht="45">
       <c r="A339" s="29" t="s">
         <v>352</v>
       </c>
@@ -13793,7 +13794,7 @@
       </c>
       <c r="I339" s="31"/>
     </row>
-    <row r="340" spans="1:9" ht="130.5" x14ac:dyDescent="0.35">
+    <row r="340" spans="1:9" ht="150">
       <c r="A340" s="29" t="s">
         <v>353</v>
       </c>
@@ -13818,7 +13819,7 @@
       </c>
       <c r="I340" s="31"/>
     </row>
-    <row r="341" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="341" spans="1:9">
       <c r="A341" s="29" t="s">
         <v>354</v>
       </c>
@@ -13843,7 +13844,7 @@
       </c>
       <c r="I341" s="31"/>
     </row>
-    <row r="342" spans="1:9" ht="145" x14ac:dyDescent="0.35">
+    <row r="342" spans="1:9" ht="165">
       <c r="A342" s="29" t="s">
         <v>355</v>
       </c>
@@ -13868,7 +13869,7 @@
       </c>
       <c r="I342" s="31"/>
     </row>
-    <row r="343" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="343" spans="1:9">
       <c r="A343" s="29" t="s">
         <v>356</v>
       </c>
@@ -13893,7 +13894,7 @@
       </c>
       <c r="I343" s="31"/>
     </row>
-    <row r="344" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="344" spans="1:9" ht="45">
       <c r="A344" s="29" t="s">
         <v>357</v>
       </c>
@@ -13918,7 +13919,7 @@
       </c>
       <c r="I344" s="31"/>
     </row>
-    <row r="345" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="345" spans="1:9" ht="30">
       <c r="A345" s="29" t="s">
         <v>358</v>
       </c>
@@ -13943,7 +13944,7 @@
       </c>
       <c r="I345" s="31"/>
     </row>
-    <row r="346" spans="1:9" ht="116" x14ac:dyDescent="0.35">
+    <row r="346" spans="1:9" ht="120">
       <c r="A346" s="29" t="s">
         <v>359</v>
       </c>
@@ -13968,7 +13969,7 @@
       </c>
       <c r="I346" s="31"/>
     </row>
-    <row r="347" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+    <row r="347" spans="1:9" ht="30">
       <c r="A347" s="29" t="s">
         <v>360</v>
       </c>
@@ -13993,7 +13994,7 @@
       </c>
       <c r="I347" s="31"/>
     </row>
-    <row r="348" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+    <row r="348" spans="1:9" ht="30">
       <c r="A348" s="29" t="s">
         <v>361</v>
       </c>
@@ -14018,7 +14019,7 @@
       </c>
       <c r="I348" s="31"/>
     </row>
-    <row r="349" spans="1:9" ht="159.5" x14ac:dyDescent="0.35">
+    <row r="349" spans="1:9" ht="180">
       <c r="A349" s="29" t="s">
         <v>362</v>
       </c>
@@ -14043,7 +14044,7 @@
       </c>
       <c r="I349" s="31"/>
     </row>
-    <row r="350" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="350" spans="1:9" ht="60">
       <c r="A350" s="29" t="s">
         <v>363</v>
       </c>
@@ -14068,7 +14069,7 @@
       </c>
       <c r="I350" s="31"/>
     </row>
-    <row r="351" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="351" spans="1:9" ht="90">
       <c r="A351" s="29" t="s">
         <v>364</v>
       </c>
@@ -14093,7 +14094,7 @@
       </c>
       <c r="I351" s="31"/>
     </row>
-    <row r="352" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+    <row r="352" spans="1:9" ht="30">
       <c r="A352" s="29" t="s">
         <v>365</v>
       </c>
@@ -14118,7 +14119,7 @@
       </c>
       <c r="I352" s="31"/>
     </row>
-    <row r="353" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="353" spans="1:9" ht="45">
       <c r="A353" s="29" t="s">
         <v>366</v>
       </c>
@@ -14143,7 +14144,7 @@
       </c>
       <c r="I353" s="31"/>
     </row>
-    <row r="354" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="354" spans="1:9" ht="45">
       <c r="A354" s="29" t="s">
         <v>367</v>
       </c>
@@ -14168,7 +14169,7 @@
       </c>
       <c r="I354" s="31"/>
     </row>
-    <row r="355" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+    <row r="355" spans="1:9" ht="30">
       <c r="A355" s="29" t="s">
         <v>368</v>
       </c>
@@ -14193,7 +14194,7 @@
       </c>
       <c r="I355" s="31"/>
     </row>
-    <row r="356" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+    <row r="356" spans="1:9" ht="30">
       <c r="A356" s="29" t="s">
         <v>369</v>
       </c>
@@ -14218,7 +14219,7 @@
       </c>
       <c r="I356" s="31"/>
     </row>
-    <row r="357" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="357" spans="1:9" ht="30">
       <c r="A357" s="29" t="s">
         <v>370</v>
       </c>
@@ -14243,7 +14244,7 @@
       </c>
       <c r="I357" s="31"/>
     </row>
-    <row r="358" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+    <row r="358" spans="1:9" ht="30">
       <c r="A358" s="29" t="s">
         <v>371</v>
       </c>
@@ -14268,7 +14269,7 @@
       </c>
       <c r="I358" s="31"/>
     </row>
-    <row r="359" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+    <row r="359" spans="1:9" ht="30">
       <c r="A359" s="29" t="s">
         <v>372</v>
       </c>
@@ -14293,7 +14294,7 @@
       </c>
       <c r="I359" s="31"/>
     </row>
-    <row r="360" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+    <row r="360" spans="1:9" ht="45">
       <c r="A360" s="29" t="s">
         <v>373</v>
       </c>
@@ -14318,7 +14319,7 @@
       </c>
       <c r="I360" s="31"/>
     </row>
-    <row r="361" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="361" spans="1:9" ht="45">
       <c r="A361" s="29" t="s">
         <v>374</v>
       </c>
@@ -14343,7 +14344,7 @@
       </c>
       <c r="I361" s="31"/>
     </row>
-    <row r="362" spans="1:9" ht="145" x14ac:dyDescent="0.35">
+    <row r="362" spans="1:9" ht="180">
       <c r="A362" s="29" t="s">
         <v>375</v>
       </c>
@@ -14368,7 +14369,7 @@
       </c>
       <c r="I362" s="31"/>
     </row>
-    <row r="363" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="363" spans="1:9">
       <c r="A363" s="29" t="s">
         <v>376</v>
       </c>
@@ -14393,7 +14394,7 @@
       </c>
       <c r="I363" s="31"/>
     </row>
-    <row r="364" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+    <row r="364" spans="1:9" ht="30">
       <c r="A364" s="29" t="s">
         <v>377</v>
       </c>
@@ -14418,7 +14419,7 @@
       </c>
       <c r="I364" s="31"/>
     </row>
-    <row r="365" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+    <row r="365" spans="1:9" ht="30">
       <c r="A365" s="29" t="s">
         <v>378</v>
       </c>
@@ -14443,7 +14444,7 @@
       </c>
       <c r="I365" s="31"/>
     </row>
-    <row r="366" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="366" spans="1:9">
       <c r="A366" s="29" t="s">
         <v>379</v>
       </c>
@@ -14468,7 +14469,7 @@
       </c>
       <c r="I366" s="31"/>
     </row>
-    <row r="367" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="367" spans="1:9">
       <c r="A367" s="29" t="s">
         <v>380</v>
       </c>
@@ -14493,7 +14494,7 @@
       </c>
       <c r="I367" s="31"/>
     </row>
-    <row r="368" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+    <row r="368" spans="1:9" ht="30">
       <c r="A368" s="29" t="s">
         <v>381</v>
       </c>
@@ -14518,7 +14519,7 @@
       </c>
       <c r="I368" s="31"/>
     </row>
-    <row r="369" spans="1:9" ht="145" x14ac:dyDescent="0.35">
+    <row r="369" spans="1:9" ht="150">
       <c r="A369" s="29" t="s">
         <v>382</v>
       </c>
@@ -14543,7 +14544,7 @@
       </c>
       <c r="I369" s="31"/>
     </row>
-    <row r="370" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="370" spans="1:9">
       <c r="A370" s="29" t="s">
         <v>383</v>
       </c>
@@ -14568,7 +14569,7 @@
       </c>
       <c r="I370" s="31"/>
     </row>
-    <row r="371" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+    <row r="371" spans="1:9" ht="30">
       <c r="A371" s="29" t="s">
         <v>384</v>
       </c>
@@ -14593,7 +14594,7 @@
       </c>
       <c r="I371" s="31"/>
     </row>
-    <row r="372" spans="1:9" ht="174" x14ac:dyDescent="0.35">
+    <row r="372" spans="1:9" ht="195">
       <c r="A372" s="29" t="s">
         <v>385</v>
       </c>
@@ -14618,7 +14619,7 @@
       </c>
       <c r="I372" s="31"/>
     </row>
-    <row r="373" spans="1:9" ht="58" x14ac:dyDescent="0.35">
+    <row r="373" spans="1:9" ht="75">
       <c r="A373" s="29" t="s">
         <v>386</v>
       </c>
@@ -14643,7 +14644,7 @@
       </c>
       <c r="I373" s="31"/>
     </row>
-    <row r="374" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="374" spans="1:9" ht="90">
       <c r="A374" s="29" t="s">
         <v>387</v>
       </c>
@@ -14668,7 +14669,7 @@
       </c>
       <c r="I374" s="31"/>
     </row>
-    <row r="375" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+    <row r="375" spans="1:9" ht="30">
       <c r="A375" s="29" t="s">
         <v>388</v>
       </c>
@@ -14693,7 +14694,7 @@
       </c>
       <c r="I375" s="31"/>
     </row>
-    <row r="376" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="376" spans="1:9" ht="60">
       <c r="A376" s="29" t="s">
         <v>389</v>
       </c>
@@ -14718,7 +14719,7 @@
       </c>
       <c r="I376" s="31"/>
     </row>
-    <row r="377" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="377" spans="1:9" ht="60">
       <c r="A377" s="29" t="s">
         <v>390</v>
       </c>
@@ -14743,7 +14744,7 @@
       </c>
       <c r="I377" s="31"/>
     </row>
-    <row r="378" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+    <row r="378" spans="1:9" ht="30">
       <c r="A378" s="29" t="s">
         <v>391</v>
       </c>
@@ -14768,7 +14769,7 @@
       </c>
       <c r="I378" s="31"/>
     </row>
-    <row r="379" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+    <row r="379" spans="1:9" ht="45">
       <c r="A379" s="29" t="s">
         <v>392</v>
       </c>
@@ -14793,7 +14794,7 @@
       </c>
       <c r="I379" s="31"/>
     </row>
-    <row r="380" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+    <row r="380" spans="1:9" ht="30">
       <c r="A380" s="29" t="s">
         <v>393</v>
       </c>
@@ -14818,7 +14819,7 @@
       </c>
       <c r="I380" s="31"/>
     </row>
-    <row r="381" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+    <row r="381" spans="1:9" ht="30">
       <c r="A381" s="29" t="s">
         <v>394</v>
       </c>
@@ -14843,7 +14844,7 @@
       </c>
       <c r="I381" s="31"/>
     </row>
-    <row r="382" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+    <row r="382" spans="1:9" ht="30">
       <c r="A382" s="29" t="s">
         <v>395</v>
       </c>
@@ -14868,7 +14869,7 @@
       </c>
       <c r="I382" s="31"/>
     </row>
-    <row r="383" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="383" spans="1:9" ht="45">
       <c r="A383" s="29" t="s">
         <v>396</v>
       </c>
@@ -14893,7 +14894,7 @@
       </c>
       <c r="I383" s="31"/>
     </row>
-    <row r="384" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="384" spans="1:9" ht="45">
       <c r="A384" s="29" t="s">
         <v>397</v>
       </c>
@@ -14918,7 +14919,7 @@
       </c>
       <c r="I384" s="31"/>
     </row>
-    <row r="385" spans="1:9" ht="159.5" x14ac:dyDescent="0.35">
+    <row r="385" spans="1:9" ht="195">
       <c r="A385" s="29" t="s">
         <v>398</v>
       </c>
@@ -14943,7 +14944,7 @@
       </c>
       <c r="I385" s="31"/>
     </row>
-    <row r="386" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="386" spans="1:9">
       <c r="A386" s="29" t="s">
         <v>399</v>
       </c>
@@ -14968,7 +14969,7 @@
       </c>
       <c r="I386" s="31"/>
     </row>
-    <row r="387" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+    <row r="387" spans="1:9" ht="30">
       <c r="A387" s="29" t="s">
         <v>400</v>
       </c>
@@ -14993,7 +14994,7 @@
       </c>
       <c r="I387" s="31"/>
     </row>
-    <row r="388" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+    <row r="388" spans="1:9" ht="30">
       <c r="A388" s="29" t="s">
         <v>401</v>
       </c>
@@ -15018,7 +15019,7 @@
       </c>
       <c r="I388" s="31"/>
     </row>
-    <row r="389" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+    <row r="389" spans="1:9" ht="30">
       <c r="A389" s="29" t="s">
         <v>402</v>
       </c>
@@ -15043,7 +15044,7 @@
       </c>
       <c r="I389" s="31"/>
     </row>
-    <row r="390" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="390" spans="1:9">
       <c r="A390" s="29" t="s">
         <v>403</v>
       </c>
@@ -15068,7 +15069,7 @@
       </c>
       <c r="I390" s="31"/>
     </row>
-    <row r="391" spans="1:9" ht="145" x14ac:dyDescent="0.35">
+    <row r="391" spans="1:9" ht="165">
       <c r="A391" s="29" t="s">
         <v>404</v>
       </c>
@@ -15093,7 +15094,7 @@
       </c>
       <c r="I391" s="31"/>
     </row>
-    <row r="392" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="392" spans="1:9">
       <c r="A392" s="29" t="s">
         <v>405</v>
       </c>
@@ -15118,7 +15119,7 @@
       </c>
       <c r="I392" s="31"/>
     </row>
-    <row r="393" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+    <row r="393" spans="1:9" ht="30">
       <c r="A393" s="29" t="s">
         <v>406</v>
       </c>
@@ -15143,7 +15144,7 @@
       </c>
       <c r="I393" s="31"/>
     </row>
-    <row r="394" spans="1:9" ht="174" x14ac:dyDescent="0.35">
+    <row r="394" spans="1:9" ht="225">
       <c r="A394" s="29" t="s">
         <v>407</v>
       </c>
@@ -15168,7 +15169,7 @@
       </c>
       <c r="I394" s="31"/>
     </row>
-    <row r="395" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="395" spans="1:9" ht="75">
       <c r="A395" s="29" t="s">
         <v>408</v>
       </c>
@@ -15193,7 +15194,7 @@
       </c>
       <c r="I395" s="31"/>
     </row>
-    <row r="396" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="396" spans="1:9" ht="90">
       <c r="A396" s="29" t="s">
         <v>409</v>
       </c>
@@ -15218,7 +15219,7 @@
       </c>
       <c r="I396" s="31"/>
     </row>
-    <row r="397" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+    <row r="397" spans="1:9" ht="30">
       <c r="A397" s="29" t="s">
         <v>410</v>
       </c>
@@ -15243,7 +15244,7 @@
       </c>
       <c r="I397" s="31"/>
     </row>
-    <row r="398" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="398" spans="1:9" ht="60">
       <c r="A398" s="29" t="s">
         <v>411</v>
       </c>
@@ -15268,7 +15269,7 @@
       </c>
       <c r="I398" s="31"/>
     </row>
-    <row r="399" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="399" spans="1:9" ht="60">
       <c r="A399" s="29" t="s">
         <v>412</v>
       </c>
@@ -15293,7 +15294,7 @@
       </c>
       <c r="I399" s="31"/>
     </row>
-    <row r="400" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+    <row r="400" spans="1:9" ht="30">
       <c r="A400" s="29" t="s">
         <v>413</v>
       </c>
@@ -15318,7 +15319,7 @@
       </c>
       <c r="I400" s="31"/>
     </row>
-    <row r="401" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="401" spans="1:9" ht="60">
       <c r="A401" s="29" t="s">
         <v>414</v>
       </c>
@@ -15343,7 +15344,7 @@
       </c>
       <c r="I401" s="31"/>
     </row>
-    <row r="402" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+    <row r="402" spans="1:9" ht="30">
       <c r="A402" s="29" t="s">
         <v>415</v>
       </c>
@@ -15368,7 +15369,7 @@
       </c>
       <c r="I402" s="31"/>
     </row>
-    <row r="403" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+    <row r="403" spans="1:9" ht="30">
       <c r="A403" s="29" t="s">
         <v>416</v>
       </c>
@@ -15393,7 +15394,7 @@
       </c>
       <c r="I403" s="31"/>
     </row>
-    <row r="404" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+    <row r="404" spans="1:9" ht="30">
       <c r="A404" s="29" t="s">
         <v>417</v>
       </c>
@@ -15418,7 +15419,7 @@
       </c>
       <c r="I404" s="31"/>
     </row>
-    <row r="405" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="405" spans="1:9" ht="45">
       <c r="A405" s="29" t="s">
         <v>418</v>
       </c>
@@ -15443,7 +15444,7 @@
       </c>
       <c r="I405" s="31"/>
     </row>
-    <row r="406" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="406" spans="1:9" ht="45">
       <c r="A406" s="29" t="s">
         <v>419</v>
       </c>
@@ -15468,7 +15469,7 @@
       </c>
       <c r="I406" s="31"/>
     </row>
-    <row r="407" spans="1:9" ht="159.5" x14ac:dyDescent="0.35">
+    <row r="407" spans="1:9" ht="210">
       <c r="A407" s="29" t="s">
         <v>420</v>
       </c>
@@ -15493,7 +15494,7 @@
       </c>
       <c r="I407" s="31"/>
     </row>
-    <row r="408" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="408" spans="1:9">
       <c r="A408" s="29" t="s">
         <v>421</v>
       </c>
@@ -15518,7 +15519,7 @@
       </c>
       <c r="I408" s="31"/>
     </row>
-    <row r="409" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+    <row r="409" spans="1:9" ht="30">
       <c r="A409" s="29" t="s">
         <v>422</v>
       </c>
@@ -15543,7 +15544,7 @@
       </c>
       <c r="I409" s="31"/>
     </row>
-    <row r="410" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+    <row r="410" spans="1:9" ht="30">
       <c r="A410" s="29" t="s">
         <v>423</v>
       </c>
@@ -15568,7 +15569,7 @@
       </c>
       <c r="I410" s="31"/>
     </row>
-    <row r="411" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="411" spans="1:9">
       <c r="A411" s="29" t="s">
         <v>424</v>
       </c>
@@ -15593,7 +15594,7 @@
       </c>
       <c r="I411" s="31"/>
     </row>
-    <row r="412" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="412" spans="1:9">
       <c r="A412" s="29" t="s">
         <v>425</v>
       </c>
@@ -15618,7 +15619,7 @@
       </c>
       <c r="I412" s="31"/>
     </row>
-    <row r="413" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+    <row r="413" spans="1:9" ht="30">
       <c r="A413" s="29" t="s">
         <v>426</v>
       </c>
@@ -15643,7 +15644,7 @@
       </c>
       <c r="I413" s="31"/>
     </row>
-    <row r="414" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="414" spans="1:9" ht="30">
       <c r="A414" s="29" t="s">
         <v>427</v>
       </c>
@@ -15668,7 +15669,7 @@
       </c>
       <c r="I414" s="31"/>
     </row>
-    <row r="415" spans="1:9" ht="145" x14ac:dyDescent="0.35">
+    <row r="415" spans="1:9" ht="165">
       <c r="A415" s="29" t="s">
         <v>428</v>
       </c>
@@ -15693,7 +15694,7 @@
       </c>
       <c r="I415" s="31"/>
     </row>
-    <row r="416" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="416" spans="1:9">
       <c r="A416" s="29" t="s">
         <v>429</v>
       </c>
@@ -15718,7 +15719,7 @@
       </c>
       <c r="I416" s="31"/>
     </row>
-    <row r="417" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+    <row r="417" spans="1:9" ht="30">
       <c r="A417" s="29" t="s">
         <v>430</v>
       </c>
@@ -15743,7 +15744,7 @@
       </c>
       <c r="I417" s="31"/>
     </row>
-    <row r="418" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="418" spans="1:9" ht="45">
       <c r="A418" s="29" t="s">
         <v>431</v>
       </c>
@@ -15768,7 +15769,7 @@
       </c>
       <c r="I418" s="31"/>
     </row>
-    <row r="419" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+    <row r="419" spans="1:9" ht="30">
       <c r="A419" s="29" t="s">
         <v>432</v>
       </c>
@@ -15793,7 +15794,7 @@
       </c>
       <c r="I419" s="31"/>
     </row>
-    <row r="420" spans="1:9" ht="188.5" x14ac:dyDescent="0.35">
+    <row r="420" spans="1:9" ht="225">
       <c r="A420" s="29" t="s">
         <v>433</v>
       </c>
@@ -15818,7 +15819,7 @@
       </c>
       <c r="I420" s="31"/>
     </row>
-    <row r="421" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="421" spans="1:9" ht="75">
       <c r="A421" s="29" t="s">
         <v>434</v>
       </c>
@@ -15843,7 +15844,7 @@
       </c>
       <c r="I421" s="31"/>
     </row>
-    <row r="422" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="422" spans="1:9" ht="90">
       <c r="A422" s="29" t="s">
         <v>435</v>
       </c>
@@ -15868,7 +15869,7 @@
       </c>
       <c r="I422" s="31"/>
     </row>
-    <row r="423" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+    <row r="423" spans="1:9" ht="30">
       <c r="A423" s="29" t="s">
         <v>436</v>
       </c>
@@ -15893,7 +15894,7 @@
       </c>
       <c r="I423" s="31"/>
     </row>
-    <row r="424" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="424" spans="1:9" ht="60">
       <c r="A424" s="29" t="s">
         <v>437</v>
       </c>
@@ -15918,7 +15919,7 @@
       </c>
       <c r="I424" s="31"/>
     </row>
-    <row r="425" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="425" spans="1:9" ht="60">
       <c r="A425" s="29" t="s">
         <v>438</v>
       </c>
@@ -15943,7 +15944,7 @@
       </c>
       <c r="I425" s="31"/>
     </row>
-    <row r="426" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+    <row r="426" spans="1:9" ht="30">
       <c r="A426" s="29" t="s">
         <v>439</v>
       </c>
@@ -15968,7 +15969,7 @@
       </c>
       <c r="I426" s="31"/>
     </row>
-    <row r="427" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="427" spans="1:9" ht="60">
       <c r="A427" s="29" t="s">
         <v>440</v>
       </c>
@@ -15993,7 +15994,7 @@
       </c>
       <c r="I427" s="31"/>
     </row>
-    <row r="428" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+    <row r="428" spans="1:9" ht="30">
       <c r="A428" s="29" t="s">
         <v>441</v>
       </c>
@@ -16018,7 +16019,7 @@
       </c>
       <c r="I428" s="31"/>
     </row>
-    <row r="429" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+    <row r="429" spans="1:9" ht="30">
       <c r="A429" s="29" t="s">
         <v>442</v>
       </c>
@@ -16043,7 +16044,7 @@
       </c>
       <c r="I429" s="31"/>
     </row>
-    <row r="430" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+    <row r="430" spans="1:9" ht="30">
       <c r="A430" s="29" t="s">
         <v>443</v>
       </c>
@@ -16068,7 +16069,7 @@
       </c>
       <c r="I430" s="31"/>
     </row>
-    <row r="431" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="431" spans="1:9" ht="45">
       <c r="A431" s="29" t="s">
         <v>444</v>
       </c>
@@ -16093,7 +16094,7 @@
       </c>
       <c r="I431" s="31"/>
     </row>
-    <row r="432" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="432" spans="1:9" ht="45">
       <c r="A432" s="29" t="s">
         <v>445</v>
       </c>
@@ -16118,7 +16119,7 @@
       </c>
       <c r="I432" s="31"/>
     </row>
-    <row r="433" spans="1:9" ht="159.5" x14ac:dyDescent="0.35">
+    <row r="433" spans="1:9" ht="225">
       <c r="A433" s="29" t="s">
         <v>446</v>
       </c>
@@ -16143,7 +16144,7 @@
       </c>
       <c r="I433" s="31"/>
     </row>
-    <row r="434" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="434" spans="1:9">
       <c r="A434" s="29" t="s">
         <v>447</v>
       </c>
@@ -16168,7 +16169,7 @@
       </c>
       <c r="I434" s="31"/>
     </row>
-    <row r="435" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+    <row r="435" spans="1:9" ht="30">
       <c r="A435" s="29" t="s">
         <v>448</v>
       </c>
@@ -16193,7 +16194,7 @@
       </c>
       <c r="I435" s="31"/>
     </row>
-    <row r="436" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+    <row r="436" spans="1:9" ht="30">
       <c r="A436" s="29" t="s">
         <v>449</v>
       </c>
@@ -16218,7 +16219,7 @@
       </c>
       <c r="I436" s="31"/>
     </row>
-    <row r="437" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="437" spans="1:9">
       <c r="A437" s="29" t="s">
         <v>450</v>
       </c>
@@ -16243,7 +16244,7 @@
       </c>
       <c r="I437" s="31"/>
     </row>
-    <row r="438" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="438" spans="1:9">
       <c r="A438" s="29" t="s">
         <v>451</v>
       </c>
@@ -16268,7 +16269,7 @@
       </c>
       <c r="I438" s="31"/>
     </row>
-    <row r="439" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+    <row r="439" spans="1:9" ht="30">
       <c r="A439" s="29" t="s">
         <v>452</v>
       </c>
@@ -16293,7 +16294,7 @@
       </c>
       <c r="I439" s="31"/>
     </row>
-    <row r="440" spans="1:9" ht="159.5" x14ac:dyDescent="0.35">
+    <row r="440" spans="1:9" ht="165">
       <c r="A440" s="29" t="s">
         <v>453</v>
       </c>
@@ -16318,7 +16319,7 @@
       </c>
       <c r="I440" s="31"/>
     </row>
-    <row r="441" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="441" spans="1:9">
       <c r="A441" s="29" t="s">
         <v>454</v>
       </c>
@@ -16343,7 +16344,7 @@
       </c>
       <c r="I441" s="31"/>
     </row>
-    <row r="442" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+    <row r="442" spans="1:9" ht="30">
       <c r="A442" s="29" t="s">
         <v>455</v>
       </c>
@@ -16368,7 +16369,7 @@
       </c>
       <c r="I442" s="31"/>
     </row>
-    <row r="443" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="443" spans="1:9" ht="60">
       <c r="A443" s="29" t="s">
         <v>456</v>
       </c>
@@ -16393,7 +16394,7 @@
       </c>
       <c r="I443" s="31"/>
     </row>
-    <row r="444" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="444" spans="1:9" ht="45">
       <c r="A444" s="29" t="s">
         <v>457</v>
       </c>
@@ -16418,7 +16419,7 @@
       </c>
       <c r="I444" s="31"/>
     </row>
-    <row r="445" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="445" spans="1:9">
       <c r="A445" s="29" t="s">
         <v>458</v>
       </c>
@@ -16443,7 +16444,7 @@
       </c>
       <c r="I445" s="31"/>
     </row>
-    <row r="446" spans="1:9" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="446" spans="1:9" ht="120">
       <c r="A446" s="29" t="s">
         <v>459</v>
       </c>
@@ -16468,7 +16469,7 @@
       </c>
       <c r="I446" s="31"/>
     </row>
-    <row r="447" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="447" spans="1:9">
       <c r="A447" s="29" t="s">
         <v>460</v>
       </c>
@@ -16493,7 +16494,7 @@
       </c>
       <c r="I447" s="31"/>
     </row>
-    <row r="448" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="448" spans="1:9" ht="30">
       <c r="A448" s="29" t="s">
         <v>461</v>
       </c>
@@ -16518,7 +16519,7 @@
       </c>
       <c r="I448" s="31"/>
     </row>
-    <row r="449" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+    <row r="449" spans="1:9" ht="30">
       <c r="A449" s="29" t="s">
         <v>462</v>
       </c>
@@ -16543,7 +16544,7 @@
       </c>
       <c r="I449" s="31"/>
     </row>
-    <row r="450" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="450" spans="1:9" ht="45">
       <c r="A450" s="29" t="s">
         <v>463</v>
       </c>
@@ -16568,7 +16569,7 @@
       </c>
       <c r="I450" s="31"/>
     </row>
-    <row r="451" spans="1:9" ht="159.5" x14ac:dyDescent="0.35">
+    <row r="451" spans="1:9" ht="165">
       <c r="A451" s="29" t="s">
         <v>464</v>
       </c>
@@ -16593,7 +16594,7 @@
       </c>
       <c r="I451" s="31"/>
     </row>
-    <row r="452" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="452" spans="1:9" ht="45">
       <c r="A452" s="29" t="s">
         <v>465</v>
       </c>
@@ -16618,7 +16619,7 @@
       </c>
       <c r="I452" s="31"/>
     </row>
-    <row r="453" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="453" spans="1:9" ht="90">
       <c r="A453" s="29" t="s">
         <v>466</v>
       </c>
@@ -16643,7 +16644,7 @@
       </c>
       <c r="I453" s="31"/>
     </row>
-    <row r="454" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+    <row r="454" spans="1:9" ht="30">
       <c r="A454" s="22" t="s">
         <v>467</v>
       </c>
@@ -16668,7 +16669,7 @@
       </c>
       <c r="I454" s="31"/>
     </row>
-    <row r="455" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="455" spans="1:9" ht="45">
       <c r="A455" s="29" t="s">
         <v>468</v>
       </c>
@@ -16693,7 +16694,7 @@
       </c>
       <c r="I455" s="31"/>
     </row>
-    <row r="456" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="456" spans="1:9" ht="45">
       <c r="A456" s="29" t="s">
         <v>469</v>
       </c>
@@ -16718,7 +16719,7 @@
       </c>
       <c r="I456" s="31"/>
     </row>
-    <row r="457" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+    <row r="457" spans="1:9" ht="30">
       <c r="A457" s="29" t="s">
         <v>470</v>
       </c>
@@ -16743,7 +16744,7 @@
       </c>
       <c r="I457" s="31"/>
     </row>
-    <row r="458" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+    <row r="458" spans="1:9" ht="30">
       <c r="A458" s="29" t="s">
         <v>471</v>
       </c>
@@ -16768,7 +16769,7 @@
       </c>
       <c r="I458" s="31"/>
     </row>
-    <row r="459" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="459" spans="1:9" ht="30">
       <c r="A459" s="29" t="s">
         <v>472</v>
       </c>
@@ -16793,7 +16794,7 @@
       </c>
       <c r="I459" s="31"/>
     </row>
-    <row r="460" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+    <row r="460" spans="1:9" ht="30">
       <c r="A460" s="29" t="s">
         <v>473</v>
       </c>
@@ -16818,7 +16819,7 @@
       </c>
       <c r="I460" s="31"/>
     </row>
-    <row r="461" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+    <row r="461" spans="1:9" ht="30">
       <c r="A461" s="29" t="s">
         <v>474</v>
       </c>
@@ -16843,7 +16844,7 @@
       </c>
       <c r="I461" s="31"/>
     </row>
-    <row r="462" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+    <row r="462" spans="1:9" ht="45">
       <c r="A462" s="29" t="s">
         <v>475</v>
       </c>
@@ -16868,7 +16869,7 @@
       </c>
       <c r="I462" s="31"/>
     </row>
-    <row r="463" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="463" spans="1:9" ht="45">
       <c r="A463" s="29" t="s">
         <v>476</v>
       </c>
@@ -16893,7 +16894,7 @@
       </c>
       <c r="I463" s="31"/>
     </row>
-    <row r="464" spans="1:9" ht="159.5" x14ac:dyDescent="0.35">
+    <row r="464" spans="1:9" ht="180">
       <c r="A464" s="29" t="s">
         <v>477</v>
       </c>
@@ -16918,7 +16919,7 @@
       </c>
       <c r="I464" s="31"/>
     </row>
-    <row r="465" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="465" spans="1:9" ht="45">
       <c r="A465" s="29" t="s">
         <v>478</v>
       </c>
@@ -16943,7 +16944,7 @@
       </c>
       <c r="I465" s="31"/>
     </row>
-    <row r="466" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="466" spans="1:9" ht="45">
       <c r="A466" s="29" t="s">
         <v>479</v>
       </c>
@@ -16968,7 +16969,7 @@
       </c>
       <c r="I466" s="31"/>
     </row>
-    <row r="467" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="467" spans="1:9" ht="45">
       <c r="A467" s="29" t="s">
         <v>480</v>
       </c>
@@ -16993,7 +16994,7 @@
       </c>
       <c r="I467" s="31"/>
     </row>
-    <row r="468" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+    <row r="468" spans="1:9" ht="30">
       <c r="A468" s="29" t="s">
         <v>481</v>
       </c>
@@ -17018,7 +17019,7 @@
       </c>
       <c r="I468" s="31"/>
     </row>
-    <row r="469" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="469" spans="1:9">
       <c r="A469" s="29" t="s">
         <v>482</v>
       </c>
@@ -17043,7 +17044,7 @@
       </c>
       <c r="I469" s="31"/>
     </row>
-    <row r="470" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="470" spans="1:9" ht="30">
       <c r="A470" s="29" t="s">
         <v>483</v>
       </c>
@@ -17068,7 +17069,7 @@
       </c>
       <c r="I470" s="31"/>
     </row>
-    <row r="471" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="471" spans="1:9" ht="30">
       <c r="A471" s="22" t="s">
         <v>1158</v>
       </c>
@@ -17093,7 +17094,7 @@
       </c>
       <c r="I471" s="31"/>
     </row>
-    <row r="472" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+    <row r="472" spans="1:9" ht="30">
       <c r="A472" s="29" t="s">
         <v>484</v>
       </c>
@@ -17118,7 +17119,7 @@
       </c>
       <c r="I472" s="31"/>
     </row>
-    <row r="473" spans="1:9" ht="145" x14ac:dyDescent="0.35">
+    <row r="473" spans="1:9" ht="150">
       <c r="A473" s="29" t="s">
         <v>485</v>
       </c>
@@ -17143,7 +17144,7 @@
       </c>
       <c r="I473" s="31"/>
     </row>
-    <row r="474" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="474" spans="1:9">
       <c r="A474" s="29" t="s">
         <v>486</v>
       </c>
@@ -17168,7 +17169,7 @@
       </c>
       <c r="I474" s="31"/>
     </row>
-    <row r="475" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+    <row r="475" spans="1:9" ht="30">
       <c r="A475" s="29" t="s">
         <v>487</v>
       </c>
@@ -17193,7 +17194,7 @@
       </c>
       <c r="I475" s="31"/>
     </row>
-    <row r="476" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="476" spans="1:9" ht="60">
       <c r="A476" s="29" t="s">
         <v>488</v>
       </c>
@@ -17218,7 +17219,7 @@
       </c>
       <c r="I476" s="31"/>
     </row>
-    <row r="477" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="477" spans="1:9" ht="45">
       <c r="A477" s="29" t="s">
         <v>489</v>
       </c>
@@ -17243,7 +17244,7 @@
       </c>
       <c r="I477" s="31"/>
     </row>
-    <row r="478" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+    <row r="478" spans="1:9" ht="30">
       <c r="A478" s="29" t="s">
         <v>490</v>
       </c>
@@ -17268,7 +17269,7 @@
       </c>
       <c r="I478" s="31"/>
     </row>
-    <row r="479" spans="1:9" ht="130.5" x14ac:dyDescent="0.35">
+    <row r="479" spans="1:9" ht="150">
       <c r="A479" s="29" t="s">
         <v>491</v>
       </c>
@@ -17293,7 +17294,7 @@
       </c>
       <c r="I479" s="31"/>
     </row>
-    <row r="480" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+    <row r="480" spans="1:9" ht="30">
       <c r="A480" s="29" t="s">
         <v>492</v>
       </c>
@@ -17318,7 +17319,7 @@
       </c>
       <c r="I480" s="31"/>
     </row>
-    <row r="481" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="481" spans="1:9" ht="30">
       <c r="A481" s="29" t="s">
         <v>493</v>
       </c>
@@ -17343,7 +17344,7 @@
       </c>
       <c r="I481" s="31"/>
     </row>
-    <row r="482" spans="1:9" ht="130.5" x14ac:dyDescent="0.35">
+    <row r="482" spans="1:9" ht="135">
       <c r="A482" s="29" t="s">
         <v>494</v>
       </c>
@@ -17368,7 +17369,7 @@
       </c>
       <c r="I482" s="31"/>
     </row>
-    <row r="483" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="483" spans="1:9">
       <c r="A483" s="29" t="s">
         <v>495</v>
       </c>
@@ -17393,7 +17394,7 @@
       </c>
       <c r="I483" s="31"/>
     </row>
-    <row r="484" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+    <row r="484" spans="1:9" ht="30">
       <c r="A484" s="29" t="s">
         <v>496</v>
       </c>
@@ -17418,7 +17419,7 @@
       </c>
       <c r="I484" s="31"/>
     </row>
-    <row r="485" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+    <row r="485" spans="1:9" ht="30">
       <c r="A485" s="29" t="s">
         <v>497</v>
       </c>
@@ -17443,7 +17444,7 @@
       </c>
       <c r="I485" s="31"/>
     </row>
-    <row r="486" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="486" spans="1:9" ht="45">
       <c r="A486" s="29" t="s">
         <v>498</v>
       </c>
@@ -17468,7 +17469,7 @@
       </c>
       <c r="I486" s="31"/>
     </row>
-    <row r="487" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="487" spans="1:9">
       <c r="A487" s="29" t="s">
         <v>499</v>
       </c>
@@ -17493,7 +17494,7 @@
       </c>
       <c r="I487" s="31"/>
     </row>
-    <row r="488" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="488" spans="1:9" ht="30">
       <c r="A488" s="29" t="s">
         <v>500</v>
       </c>
@@ -17518,7 +17519,7 @@
       </c>
       <c r="I488" s="31"/>
     </row>
-    <row r="489" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="489" spans="1:9">
       <c r="A489" s="29" t="s">
         <v>501</v>
       </c>
@@ -17543,7 +17544,7 @@
       </c>
       <c r="I489" s="31"/>
     </row>
-    <row r="490" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+    <row r="490" spans="1:9" ht="30">
       <c r="A490" s="29" t="s">
         <v>502</v>
       </c>
@@ -17568,7 +17569,7 @@
       </c>
       <c r="I490" s="31"/>
     </row>
-    <row r="491" spans="1:9" ht="159.5" x14ac:dyDescent="0.35">
+    <row r="491" spans="1:9" ht="195">
       <c r="A491" s="29" t="s">
         <v>503</v>
       </c>
@@ -17593,7 +17594,7 @@
       </c>
       <c r="I491" s="31"/>
     </row>
-    <row r="492" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="492" spans="1:9" ht="75">
       <c r="A492" s="29" t="s">
         <v>504</v>
       </c>
@@ -17618,7 +17619,7 @@
       </c>
       <c r="I492" s="31"/>
     </row>
-    <row r="493" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="493" spans="1:9" ht="90">
       <c r="A493" s="29" t="s">
         <v>505</v>
       </c>
@@ -17643,7 +17644,7 @@
       </c>
       <c r="I493" s="31"/>
     </row>
-    <row r="494" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+    <row r="494" spans="1:9" ht="30">
       <c r="A494" s="29" t="s">
         <v>506</v>
       </c>
@@ -17668,7 +17669,7 @@
       </c>
       <c r="I494" s="31"/>
     </row>
-    <row r="495" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="495" spans="1:9" ht="45">
       <c r="A495" s="29" t="s">
         <v>507</v>
       </c>
@@ -17693,7 +17694,7 @@
       </c>
       <c r="I495" s="31"/>
     </row>
-    <row r="496" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="496" spans="1:9" ht="45">
       <c r="A496" s="29" t="s">
         <v>508</v>
       </c>
@@ -17718,7 +17719,7 @@
       </c>
       <c r="I496" s="31"/>
     </row>
-    <row r="497" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+    <row r="497" spans="1:9" ht="30">
       <c r="A497" s="29" t="s">
         <v>509</v>
       </c>
@@ -17743,7 +17744,7 @@
       </c>
       <c r="I497" s="31"/>
     </row>
-    <row r="498" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+    <row r="498" spans="1:9" ht="45">
       <c r="A498" s="29" t="s">
         <v>510</v>
       </c>
@@ -17768,7 +17769,7 @@
       </c>
       <c r="I498" s="31"/>
     </row>
-    <row r="499" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+    <row r="499" spans="1:9" ht="30">
       <c r="A499" s="29" t="s">
         <v>511</v>
       </c>
@@ -17793,7 +17794,7 @@
       </c>
       <c r="I499" s="31"/>
     </row>
-    <row r="500" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+    <row r="500" spans="1:9" ht="30">
       <c r="A500" s="29" t="s">
         <v>512</v>
       </c>
@@ -17818,7 +17819,7 @@
       </c>
       <c r="I500" s="31"/>
     </row>
-    <row r="501" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+    <row r="501" spans="1:9" ht="30">
       <c r="A501" s="29" t="s">
         <v>513</v>
       </c>
@@ -17843,7 +17844,7 @@
       </c>
       <c r="I501" s="31"/>
     </row>
-    <row r="502" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+    <row r="502" spans="1:9" ht="45">
       <c r="A502" s="29" t="s">
         <v>514</v>
       </c>
@@ -17868,7 +17869,7 @@
       </c>
       <c r="I502" s="31"/>
     </row>
-    <row r="503" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="503" spans="1:9" ht="45">
       <c r="A503" s="29" t="s">
         <v>515</v>
       </c>
@@ -17893,7 +17894,7 @@
       </c>
       <c r="I503" s="31"/>
     </row>
-    <row r="504" spans="1:9" ht="159.5" x14ac:dyDescent="0.35">
+    <row r="504" spans="1:9" ht="210">
       <c r="A504" s="29" t="s">
         <v>516</v>
       </c>
@@ -17918,7 +17919,7 @@
       </c>
       <c r="I504" s="31"/>
     </row>
-    <row r="505" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="505" spans="1:9">
       <c r="A505" s="29" t="s">
         <v>517</v>
       </c>
@@ -17943,7 +17944,7 @@
       </c>
       <c r="I505" s="31"/>
     </row>
-    <row r="506" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+    <row r="506" spans="1:9" ht="30">
       <c r="A506" s="29" t="s">
         <v>518</v>
       </c>
@@ -17968,7 +17969,7 @@
       </c>
       <c r="I506" s="31"/>
     </row>
-    <row r="507" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+    <row r="507" spans="1:9" ht="30">
       <c r="A507" s="29" t="s">
         <v>519</v>
       </c>
@@ -17993,7 +17994,7 @@
       </c>
       <c r="I507" s="31"/>
     </row>
-    <row r="508" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="508" spans="1:9">
       <c r="A508" s="29" t="s">
         <v>520</v>
       </c>
@@ -18018,7 +18019,7 @@
       </c>
       <c r="I508" s="31"/>
     </row>
-    <row r="509" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="509" spans="1:9">
       <c r="A509" s="29" t="s">
         <v>521</v>
       </c>
@@ -18043,7 +18044,7 @@
       </c>
       <c r="I509" s="31"/>
     </row>
-    <row r="510" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="510" spans="1:9" ht="30">
       <c r="A510" s="22" t="s">
         <v>1160</v>
       </c>
@@ -18068,7 +18069,7 @@
       </c>
       <c r="I510" s="20"/>
     </row>
-    <row r="511" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+    <row r="511" spans="1:9" ht="30">
       <c r="A511" s="29" t="s">
         <v>522</v>
       </c>
@@ -18093,7 +18094,7 @@
       </c>
       <c r="I511" s="31"/>
     </row>
-    <row r="512" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+    <row r="512" spans="1:9" ht="30">
       <c r="A512" s="29" t="s">
         <v>523</v>
       </c>
@@ -18118,7 +18119,7 @@
       </c>
       <c r="I512" s="31"/>
     </row>
-    <row r="513" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+    <row r="513" spans="1:9" ht="30">
       <c r="A513" s="29" t="s">
         <v>524</v>
       </c>
@@ -18143,7 +18144,7 @@
       </c>
       <c r="I513" s="31"/>
     </row>
-    <row r="514" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="514" spans="1:9">
       <c r="A514" s="29" t="s">
         <v>525</v>
       </c>
@@ -18168,7 +18169,7 @@
       </c>
       <c r="I514" s="31"/>
     </row>
-    <row r="515" spans="1:9" ht="145" x14ac:dyDescent="0.35">
+    <row r="515" spans="1:9" ht="150">
       <c r="A515" s="29" t="s">
         <v>526</v>
       </c>
@@ -18193,7 +18194,7 @@
       </c>
       <c r="I515" s="31"/>
     </row>
-    <row r="516" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="516" spans="1:9">
       <c r="A516" s="29" t="s">
         <v>527</v>
       </c>
@@ -18218,7 +18219,7 @@
       </c>
       <c r="I516" s="31"/>
     </row>
-    <row r="517" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+    <row r="517" spans="1:9" ht="30">
       <c r="A517" s="29" t="s">
         <v>528</v>
       </c>
@@ -18243,7 +18244,7 @@
       </c>
       <c r="I517" s="31"/>
     </row>
-    <row r="518" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="518" spans="1:9" ht="45">
       <c r="A518" s="29" t="s">
         <v>529</v>
       </c>
@@ -18268,7 +18269,7 @@
       </c>
       <c r="I518" s="31"/>
     </row>
-    <row r="519" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+    <row r="519" spans="1:9" ht="30">
       <c r="A519" s="29" t="s">
         <v>530</v>
       </c>
@@ -18293,7 +18294,7 @@
       </c>
       <c r="I519" s="31"/>
     </row>
-    <row r="520" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="520" spans="1:9" ht="45">
       <c r="A520" s="29" t="s">
         <v>531</v>
       </c>
@@ -18322,11 +18323,11 @@
         <v>1118</v>
       </c>
     </row>
-    <row r="521" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="521" spans="1:9">
       <c r="A521" s="3"/>
       <c r="B521" s="10"/>
     </row>
-    <row r="522" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="522" spans="1:9">
       <c r="A522" s="3"/>
       <c r="B522" s="10"/>
     </row>
@@ -18347,54 +18348,54 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="I20:I454 A35:I470 A471:B471 D471:I471 A472:I520 A20:H276">
-    <cfRule type="expression" dxfId="13" priority="91">
+    <cfRule type="expression" dxfId="32" priority="91">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="92">
+    <cfRule type="expression" dxfId="31" priority="92">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="11" priority="99">
+    <cfRule type="expression" dxfId="30" priority="99">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I20:I454 A35:I470 A471:B471 D471:I471 A472:I520 A20:H276">
-    <cfRule type="expression" dxfId="10" priority="45">
+    <cfRule type="expression" dxfId="29" priority="45">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="9" priority="46">
+    <cfRule type="expression" dxfId="28" priority="46">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="47">
+    <cfRule type="expression" dxfId="27" priority="47">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F20:F520">
-    <cfRule type="expression" dxfId="7" priority="51">
+    <cfRule type="expression" dxfId="26" priority="51">
       <formula>NOT(VLOOKUP(F20,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="52">
+    <cfRule type="expression" dxfId="25" priority="52">
       <formula>(VLOOKUP(F20,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C471">
-    <cfRule type="expression" dxfId="5" priority="4">
+    <cfRule type="expression" dxfId="24" priority="4">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="5">
+    <cfRule type="expression" dxfId="23" priority="5">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="6">
+    <cfRule type="expression" dxfId="22" priority="6">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C471">
-    <cfRule type="expression" dxfId="2" priority="1">
+    <cfRule type="expression" dxfId="21" priority="1">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="2">
+    <cfRule type="expression" dxfId="20" priority="2">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="3">
+    <cfRule type="expression" dxfId="19" priority="3">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18422,7 +18423,7 @@
     <oddFooter>&amp;F&amp;RPage &amp;P</oddFooter>
   </headerFooter>
   <ignoredErrors>
-    <ignoredError sqref="B35:B522 B19:B33 C3" numberStoredAsText="1"/>
+    <ignoredError sqref="B35:B522 B19:B33" numberStoredAsText="1"/>
   </ignoredErrors>
   <tableParts count="2">
     <tablePart r:id="rId2"/>
